--- a/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.001336934405141</v>
+      </c>
+      <c r="D3">
+        <v>0.9988852791390335</v>
+      </c>
+      <c r="E3">
         <v>1.000519045043411</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1.000507344963198</v>
+      </c>
+      <c r="G3">
         <v>0.9979662883032179</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.000502526645789</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.000519045043411</v>
-      </c>
-      <c r="G3">
-        <v>1.001336934405141</v>
-      </c>
-      <c r="H3">
-        <v>0.9988852791390335</v>
-      </c>
-      <c r="I3">
-        <v>1.000507344963198</v>
       </c>
       <c r="J3">
         <v>0.9979662883032179</v>
@@ -728,7 +680,7 @@
         <v>0.9999529030832984</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.002581527818124</v>
+      </c>
+      <c r="D4">
+        <v>0.9978480652736793</v>
+      </c>
+      <c r="E4">
         <v>1.001001467538597</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.00097938565425</v>
+      </c>
+      <c r="G4">
         <v>0.9960742767011835</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.000970296424139</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>1.001001467538597</v>
-      </c>
-      <c r="G4">
-        <v>1.002581527818124</v>
-      </c>
-      <c r="H4">
-        <v>0.9978480652736793</v>
-      </c>
-      <c r="I4">
-        <v>1.00097938565425</v>
       </c>
       <c r="J4">
         <v>0.9960742767011835</v>
@@ -790,7 +742,7 @@
         <v>0.9999091699016621</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.004948358787556</v>
+      </c>
+      <c r="D5">
+        <v>0.9958761212419471</v>
+      </c>
+      <c r="E5">
         <v>1.001918111794264</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.001876797027174</v>
+      </c>
+      <c r="G5">
         <v>0.9924774987940739</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.001859800985176</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.001918111794264</v>
-      </c>
-      <c r="G5">
-        <v>1.004948358787556</v>
-      </c>
-      <c r="H5">
-        <v>0.9958761212419471</v>
-      </c>
-      <c r="I5">
-        <v>1.001876797027174</v>
       </c>
       <c r="J5">
         <v>0.9924774987940739</v>
@@ -852,7 +804,7 @@
         <v>0.9998261147716986</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.007258501653394</v>
+      </c>
+      <c r="D6">
+        <v>0.9939516053757598</v>
+      </c>
+      <c r="E6">
         <v>1.002812487454898</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.002752606311215</v>
+      </c>
+      <c r="G6">
         <v>0.9889673632249761</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.002727975626326</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.002812487454898</v>
-      </c>
-      <c r="G6">
-        <v>1.007258501653394</v>
-      </c>
-      <c r="H6">
-        <v>0.9939516053757598</v>
-      </c>
-      <c r="I6">
-        <v>1.002752606311215</v>
       </c>
       <c r="J6">
         <v>0.9889673632249761</v>
@@ -914,7 +866,7 @@
         <v>0.9997450899410949</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000097498838638</v>
+      </c>
+      <c r="D7">
+        <v>0.9999205942349662</v>
+      </c>
+      <c r="E7">
         <v>1.000035008960775</v>
       </c>
-      <c r="D7">
-        <v>0.9998562386246513</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>1.000036036597626</v>
+      </c>
+      <c r="G7">
+        <v>0.9998562386246512</v>
+      </c>
+      <c r="H7">
         <v>1.000036455292438</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>1.000035008960775</v>
       </c>
-      <c r="G7">
-        <v>1.000097498838639</v>
-      </c>
-      <c r="H7">
-        <v>0.9999205942349659</v>
-      </c>
-      <c r="I7">
-        <v>1.000036036597626</v>
-      </c>
       <c r="J7">
-        <v>0.9998562386246513</v>
+        <v>0.9998562386246512</v>
       </c>
       <c r="K7">
         <v>1.000035008960775</v>
@@ -973,10 +925,10 @@
         <v>0.99999067795966</v>
       </c>
       <c r="T7">
-        <v>0.9999969720915159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999969720915157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,25 +936,25 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000248450067376</v>
+      </c>
+      <c r="D8">
+        <v>0.999797608910109</v>
+      </c>
+      <c r="E8">
         <v>1.000089282667622</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1.00009185291688</v>
+      </c>
+      <c r="G8">
         <v>0.9996335449720898</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.000092906445428</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>1.000089282667622</v>
-      </c>
-      <c r="G8">
-        <v>1.000248450067376</v>
-      </c>
-      <c r="H8">
-        <v>0.9997976089101087</v>
-      </c>
-      <c r="I8">
-        <v>1.00009185291688</v>
       </c>
       <c r="J8">
         <v>0.9996335449720898</v>
@@ -1020,7 +972,7 @@
         <v>0.9998632257087587</v>
       </c>
       <c r="O8">
-        <v>0.999841353442542</v>
+        <v>0.9998413534425422</v>
       </c>
       <c r="P8">
         <v>0.9999385780283797</v>
@@ -1035,10 +987,10 @@
         <v>0.9999762541881903</v>
       </c>
       <c r="T8">
-        <v>0.9999922743299172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999922743299173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00034770920793</v>
+      </c>
+      <c r="D9">
+        <v>0.9997166190084714</v>
+      </c>
+      <c r="E9">
         <v>1.000125150448637</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000128616174315</v>
+      </c>
+      <c r="G9">
         <v>0.9994868218626139</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.000130038346019</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.000125150448637</v>
-      </c>
-      <c r="G9">
-        <v>1.00034770920793</v>
-      </c>
-      <c r="H9">
-        <v>0.9997166190084714</v>
-      </c>
-      <c r="I9">
-        <v>1.000128616174315</v>
       </c>
       <c r="J9">
         <v>0.9994868218626139</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999891591746644</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.00074976549797</v>
+      </c>
+      <c r="D10">
+        <v>0.9993889652686383</v>
+      </c>
+      <c r="E10">
         <v>1.000269835891088</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.000277326105611</v>
+      </c>
+      <c r="G10">
         <v>0.9988934760484469</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.000280401739096</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>1.000269835891088</v>
-      </c>
-      <c r="G10">
-        <v>1.00074976549797</v>
-      </c>
-      <c r="H10">
-        <v>0.9993889652686383</v>
-      </c>
-      <c r="I10">
-        <v>1.000277326105611</v>
       </c>
       <c r="J10">
         <v>0.9988934760484469</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999766284251418</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1122,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000447904345155</v>
+        <v>1.001243342275259</v>
       </c>
       <c r="D11">
+        <v>0.9989864230237224</v>
+      </c>
+      <c r="E11">
+        <v>1.000447904345154</v>
+      </c>
+      <c r="F11">
+        <v>1.000460038588926</v>
+      </c>
+      <c r="G11">
         <v>0.9981643413154863</v>
       </c>
-      <c r="E11">
-        <v>1.00046502704117</v>
-      </c>
-      <c r="F11">
-        <v>1.000447904345155</v>
-      </c>
-      <c r="G11">
-        <v>1.001243342275259</v>
-      </c>
       <c r="H11">
-        <v>0.9989864230237224</v>
+        <v>1.000465027041169</v>
       </c>
       <c r="I11">
-        <v>1.000460038588926</v>
+        <v>1.000447904345154</v>
       </c>
       <c r="J11">
         <v>0.9981643413154863</v>
       </c>
       <c r="K11">
-        <v>1.000447904345155</v>
+        <v>1.000447904345154</v>
       </c>
       <c r="L11">
-        <v>1.00046502704117</v>
+        <v>1.000465027041169</v>
       </c>
       <c r="M11">
-        <v>0.999314684178328</v>
+        <v>0.9993146841783278</v>
       </c>
       <c r="N11">
-        <v>0.999314684178328</v>
+        <v>0.9993146841783278</v>
       </c>
       <c r="O11">
-        <v>0.9992052637934595</v>
+        <v>0.9992052637934593</v>
       </c>
       <c r="P11">
-        <v>0.999692424233937</v>
+        <v>0.9996924242339368</v>
       </c>
       <c r="Q11">
-        <v>0.999692424233937</v>
+        <v>0.9996924242339368</v>
       </c>
       <c r="R11">
-        <v>0.9998812942617414</v>
+        <v>0.9998812942617412</v>
       </c>
       <c r="S11">
-        <v>0.9998812942617414</v>
+        <v>0.9998812942617412</v>
       </c>
       <c r="T11">
         <v>0.9999611794316196</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9888456298233126</v>
+      </c>
+      <c r="D12">
+        <v>1.008979219520659</v>
+      </c>
+      <c r="E12">
         <v>0.996153154398043</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.9959309568614352</v>
+      </c>
+      <c r="G12">
         <v>1.016193888586086</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>0.995839515633447</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>0.996153154398043</v>
-      </c>
-      <c r="G12">
-        <v>0.9888456298233126</v>
-      </c>
-      <c r="H12">
-        <v>1.008979219520659</v>
-      </c>
-      <c r="I12">
-        <v>0.9959309568614352</v>
       </c>
       <c r="J12">
         <v>1.016193888586086</v>
@@ -1286,7 +1238,7 @@
         <v>1.000323727470497</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9972987008390212</v>
+      </c>
+      <c r="D13">
+        <v>1.002323846036044</v>
+      </c>
+      <c r="E13">
         <v>0.9988435240341823</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.998938403644375</v>
+      </c>
+      <c r="G13">
         <v>1.004281537449279</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.9989774478140858</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.9988435240341823</v>
-      </c>
-      <c r="G13">
-        <v>0.9972987008390213</v>
-      </c>
-      <c r="H13">
-        <v>1.002323846036043</v>
-      </c>
-      <c r="I13">
-        <v>0.998938403644375</v>
       </c>
       <c r="J13">
         <v>1.004281537449279</v>
@@ -1339,16 +1291,16 @@
         <v>1.000700836432516</v>
       </c>
       <c r="R13">
-        <v>1.000236508332933</v>
+        <v>1.000236508332932</v>
       </c>
       <c r="S13">
-        <v>1.000236508332933</v>
+        <v>1.000236508332932</v>
       </c>
       <c r="T13">
         <v>1.000110576636164</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9888323744684009</v>
+      </c>
+      <c r="D14">
+        <v>1.00897834241764</v>
+      </c>
+      <c r="E14">
         <v>0.9961659865889145</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9959320169001692</v>
+      </c>
+      <c r="G14">
         <v>1.016185282777185</v>
       </c>
-      <c r="E14">
-        <v>0.9958357270684534</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>0.9958357270684536</v>
+      </c>
+      <c r="I14">
         <v>0.9961659865889145</v>
-      </c>
-      <c r="G14">
-        <v>0.9888323744684009</v>
-      </c>
-      <c r="H14">
-        <v>1.00897834241764</v>
-      </c>
-      <c r="I14">
-        <v>0.9959320169001692</v>
       </c>
       <c r="J14">
         <v>1.016185282777185</v>
@@ -1383,7 +1335,7 @@
         <v>0.9961659865889145</v>
       </c>
       <c r="L14">
-        <v>0.9958357270684534</v>
+        <v>0.9958357270684536</v>
       </c>
       <c r="M14">
         <v>1.006010504922819</v>
@@ -1410,7 +1362,7 @@
         <v>1.000321621703461</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.998838330620227</v>
+        <v>0.99730459539724</v>
       </c>
       <c r="D15">
+        <v>1.002323897636629</v>
+      </c>
+      <c r="E15">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="F15">
+        <v>0.9989381065659431</v>
+      </c>
+      <c r="G15">
         <v>1.004284544148603</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9989791665705556</v>
       </c>
-      <c r="F15">
-        <v>0.998838330620227</v>
-      </c>
-      <c r="G15">
-        <v>0.99730459539724</v>
-      </c>
-      <c r="H15">
-        <v>1.002323897636629</v>
-      </c>
       <c r="I15">
-        <v>0.9989381065659431</v>
+        <v>0.9988383306202269</v>
       </c>
       <c r="J15">
         <v>1.004284544148603</v>
       </c>
       <c r="K15">
-        <v>0.998838330620227</v>
+        <v>0.9988383306202269</v>
       </c>
       <c r="L15">
         <v>0.9989791665705556</v>
@@ -1472,7 +1424,7 @@
         <v>1.000111440156533</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000003381626416</v>
+        <v>1.026107189968874</v>
       </c>
       <c r="D16">
-        <v>0.9999908403100667</v>
+        <v>0.9782583292607199</v>
       </c>
       <c r="E16">
-        <v>1.000001680990999</v>
+        <v>1.010096275056794</v>
       </c>
       <c r="F16">
-        <v>1.000003381626416</v>
+        <v>1.009893880976428</v>
       </c>
       <c r="G16">
-        <v>1.000004167461921</v>
+        <v>0.9603494844079044</v>
       </c>
       <c r="H16">
-        <v>0.9999953535447956</v>
+        <v>1.009810594019757</v>
       </c>
       <c r="I16">
-        <v>1.000002179726511</v>
+        <v>1.010096275056794</v>
       </c>
       <c r="J16">
-        <v>0.9999908403100667</v>
+        <v>0.9603494844079044</v>
       </c>
       <c r="K16">
-        <v>1.000003381626416</v>
+        <v>1.010096275056794</v>
       </c>
       <c r="L16">
-        <v>1.000001680990999</v>
+        <v>1.009810594019757</v>
       </c>
       <c r="M16">
-        <v>0.999996260650533</v>
+        <v>0.9850800392138309</v>
       </c>
       <c r="N16">
-        <v>0.999996260650533</v>
+        <v>0.9850800392138309</v>
       </c>
       <c r="O16">
-        <v>0.9999959582819539</v>
+        <v>0.9828061358961273</v>
       </c>
       <c r="P16">
-        <v>0.9999986343091608</v>
+        <v>0.9934187844948186</v>
       </c>
       <c r="Q16">
-        <v>0.9999986343091608</v>
+        <v>0.9934187844948186</v>
       </c>
       <c r="R16">
-        <v>0.9999998211384746</v>
+        <v>0.9975881571353125</v>
       </c>
       <c r="S16">
-        <v>0.9999998211384746</v>
+        <v>0.9975881571353125</v>
       </c>
       <c r="T16">
-        <v>0.9999996006101183</v>
+        <v>0.999085958948413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00004036131163</v>
+        <v>1.021436688948143</v>
       </c>
       <c r="D17">
-        <v>0.9998252440252546</v>
+        <v>0.982211155939978</v>
       </c>
       <c r="E17">
-        <v>1.000045535591986</v>
+        <v>1.00819474356726</v>
       </c>
       <c r="F17">
-        <v>1.00004036131163</v>
+        <v>1.008091597227036</v>
       </c>
       <c r="G17">
-        <v>1.000122421706267</v>
+        <v>0.9675953889860317</v>
       </c>
       <c r="H17">
-        <v>0.9999026844663654</v>
+        <v>1.008049151017486</v>
       </c>
       <c r="I17">
-        <v>1.000044029391928</v>
+        <v>1.00819474356726</v>
       </c>
       <c r="J17">
-        <v>0.9998252440252546</v>
+        <v>0.9675953889860317</v>
       </c>
       <c r="K17">
-        <v>1.00004036131163</v>
+        <v>1.00819474356726</v>
       </c>
       <c r="L17">
-        <v>1.000045535591986</v>
+        <v>1.008049151017486</v>
       </c>
       <c r="M17">
-        <v>0.9999353898086204</v>
+        <v>0.9878222700017589</v>
       </c>
       <c r="N17">
-        <v>0.9999353898086204</v>
+        <v>0.9878222700017589</v>
       </c>
       <c r="O17">
-        <v>0.9999244880278688</v>
+        <v>0.9859518986478321</v>
       </c>
       <c r="P17">
-        <v>0.9999703803096237</v>
+        <v>0.9946130945235926</v>
       </c>
       <c r="Q17">
-        <v>0.9999703803096237</v>
+        <v>0.9946130945235926</v>
       </c>
       <c r="R17">
-        <v>0.9999878755601254</v>
+        <v>0.9980085067845094</v>
       </c>
       <c r="S17">
-        <v>0.9999878755601254</v>
+        <v>0.9980085067845094</v>
       </c>
       <c r="T17">
-        <v>0.9999967127489052</v>
+        <v>0.9992631209476559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000165724070764</v>
+        <v>1.012041978988502</v>
       </c>
       <c r="D18">
-        <v>0.99937019755737</v>
+        <v>0.9901593666621574</v>
       </c>
       <c r="E18">
-        <v>1.000152851995962</v>
+        <v>1.004374176921539</v>
       </c>
       <c r="F18">
-        <v>1.000165724070764</v>
+        <v>1.004467782112022</v>
       </c>
       <c r="G18">
-        <v>1.000405160329111</v>
+        <v>0.9821635385110625</v>
       </c>
       <c r="H18">
-        <v>0.9996565834865918</v>
+        <v>1.004506300236515</v>
       </c>
       <c r="I18">
-        <v>1.000156604955105</v>
+        <v>1.004374176921539</v>
       </c>
       <c r="J18">
-        <v>0.99937019755737</v>
+        <v>0.9821635385110625</v>
       </c>
       <c r="K18">
-        <v>1.000165724070764</v>
+        <v>1.004374176921539</v>
       </c>
       <c r="L18">
-        <v>1.000152851995962</v>
+        <v>1.004506300236515</v>
       </c>
       <c r="M18">
-        <v>0.999761524776666</v>
+        <v>0.9933349193737888</v>
       </c>
       <c r="N18">
-        <v>0.999761524776666</v>
+        <v>0.9933349193737888</v>
       </c>
       <c r="O18">
-        <v>0.9997265443466413</v>
+        <v>0.9922764018032449</v>
       </c>
       <c r="P18">
-        <v>0.9998962578746987</v>
+        <v>0.9970146718897057</v>
       </c>
       <c r="Q18">
-        <v>0.9998962578746989</v>
+        <v>0.9970146718897057</v>
       </c>
       <c r="R18">
-        <v>0.9999636244237153</v>
+        <v>0.9988545481476641</v>
       </c>
       <c r="S18">
-        <v>0.9999636244237153</v>
+        <v>0.9988545481476641</v>
       </c>
       <c r="T18">
-        <v>0.9999845203991505</v>
+        <v>0.9996188572386329</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.013180663884439</v>
+      </c>
+      <c r="D19">
+        <v>0.9892589119512816</v>
+      </c>
+      <c r="E19">
+        <v>1.00474251289466</v>
+      </c>
+      <c r="F19">
+        <v>1.004874912030342</v>
+      </c>
+      <c r="G19">
+        <v>0.9805493904798864</v>
+      </c>
+      <c r="H19">
+        <v>1.004929401316311</v>
+      </c>
+      <c r="I19">
+        <v>1.00474251289466</v>
+      </c>
+      <c r="J19">
+        <v>0.9805493904798864</v>
+      </c>
+      <c r="K19">
+        <v>1.00474251289466</v>
+      </c>
+      <c r="L19">
+        <v>1.004929401316311</v>
+      </c>
+      <c r="M19">
+        <v>0.9927393958980988</v>
+      </c>
+      <c r="N19">
+        <v>0.9927393958980988</v>
+      </c>
+      <c r="O19">
+        <v>0.9915792345824931</v>
+      </c>
+      <c r="P19">
+        <v>0.9967404348969525</v>
+      </c>
+      <c r="Q19">
+        <v>0.9967404348969525</v>
+      </c>
+      <c r="R19">
+        <v>0.9987409543963794</v>
+      </c>
+      <c r="S19">
+        <v>0.9987409543963794</v>
+      </c>
+      <c r="T19">
+        <v>0.9995892987594867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000004167461921</v>
+      </c>
+      <c r="D20">
+        <v>0.9999953535447956</v>
+      </c>
+      <c r="E20">
+        <v>1.000003381626416</v>
+      </c>
+      <c r="F20">
+        <v>1.000002179726511</v>
+      </c>
+      <c r="G20">
+        <v>0.9999908403100667</v>
+      </c>
+      <c r="H20">
+        <v>1.000001680990999</v>
+      </c>
+      <c r="I20">
+        <v>1.000003381626416</v>
+      </c>
+      <c r="J20">
+        <v>0.9999908403100667</v>
+      </c>
+      <c r="K20">
+        <v>1.000003381626416</v>
+      </c>
+      <c r="L20">
+        <v>1.000001680990999</v>
+      </c>
+      <c r="M20">
+        <v>0.999996260650533</v>
+      </c>
+      <c r="N20">
+        <v>0.999996260650533</v>
+      </c>
+      <c r="O20">
+        <v>0.9999959582819539</v>
+      </c>
+      <c r="P20">
+        <v>0.9999986343091608</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999986343091608</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998211384746</v>
+      </c>
+      <c r="S20">
+        <v>0.9999998211384746</v>
+      </c>
+      <c r="T20">
+        <v>0.9999996006101183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000122421706267</v>
+      </c>
+      <c r="D21">
+        <v>0.9999026844663654</v>
+      </c>
+      <c r="E21">
+        <v>1.00004036131163</v>
+      </c>
+      <c r="F21">
+        <v>1.000044029391928</v>
+      </c>
+      <c r="G21">
+        <v>0.9998252440252546</v>
+      </c>
+      <c r="H21">
+        <v>1.000045535591986</v>
+      </c>
+      <c r="I21">
+        <v>1.00004036131163</v>
+      </c>
+      <c r="J21">
+        <v>0.9998252440252546</v>
+      </c>
+      <c r="K21">
+        <v>1.00004036131163</v>
+      </c>
+      <c r="L21">
+        <v>1.000045535591986</v>
+      </c>
+      <c r="M21">
+        <v>0.9999353898086204</v>
+      </c>
+      <c r="N21">
+        <v>0.9999353898086204</v>
+      </c>
+      <c r="O21">
+        <v>0.9999244880278688</v>
+      </c>
+      <c r="P21">
+        <v>0.9999703803096237</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999703803096237</v>
+      </c>
+      <c r="R21">
+        <v>0.9999878755601254</v>
+      </c>
+      <c r="S21">
+        <v>0.9999878755601254</v>
+      </c>
+      <c r="T21">
+        <v>0.9999967127489052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000405160329111</v>
+      </c>
+      <c r="D22">
+        <v>0.9996565834865917</v>
+      </c>
+      <c r="E22">
+        <v>1.000165724070764</v>
+      </c>
+      <c r="F22">
+        <v>1.000156604955105</v>
+      </c>
+      <c r="G22">
+        <v>0.99937019755737</v>
+      </c>
+      <c r="H22">
+        <v>1.000152851995962</v>
+      </c>
+      <c r="I22">
+        <v>1.000165724070764</v>
+      </c>
+      <c r="J22">
+        <v>0.99937019755737</v>
+      </c>
+      <c r="K22">
+        <v>1.000165724070764</v>
+      </c>
+      <c r="L22">
+        <v>1.000152851995962</v>
+      </c>
+      <c r="M22">
+        <v>0.999761524776666</v>
+      </c>
+      <c r="N22">
+        <v>0.999761524776666</v>
+      </c>
+      <c r="O22">
+        <v>0.9997265443466413</v>
+      </c>
+      <c r="P22">
+        <v>0.9998962578746987</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998962578746989</v>
+      </c>
+      <c r="R22">
+        <v>0.9999636244237153</v>
+      </c>
+      <c r="S22">
+        <v>0.9999636244237153</v>
+      </c>
+      <c r="T22">
+        <v>0.9999845203991508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000932003203902</v>
+      </c>
+      <c r="D23">
+        <v>0.9991949558366336</v>
+      </c>
+      <c r="E23">
         <v>1.000403928062963</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000367941524129</v>
+      </c>
+      <c r="G23">
         <v>0.9985149054341836</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.000353129626377</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>1.000403928062963</v>
       </c>
-      <c r="G19">
-        <v>1.000932003203902</v>
-      </c>
-      <c r="H19">
-        <v>0.9991949558366336</v>
-      </c>
-      <c r="I19">
-        <v>1.000367941524129</v>
-      </c>
-      <c r="J19">
+      <c r="J23">
         <v>0.9985149054341836</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000403928062963</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000353129626377</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9994340175302805</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9994340175302805</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9993543302990648</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997573210411747</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9997573210411747</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999189727966217</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999189727966217</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999611439480313</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001336934405141</v>
+        <v>1.014260901224783</v>
       </c>
       <c r="D3">
-        <v>0.9988852791390335</v>
+        <v>0.9883449372262256</v>
       </c>
       <c r="E3">
-        <v>1.000519045043411</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="F3">
-        <v>1.000507344963198</v>
+        <v>1.005291622146976</v>
       </c>
       <c r="G3">
-        <v>0.9979662883032179</v>
+        <v>0.978874146433716</v>
       </c>
       <c r="H3">
-        <v>1.000502526645789</v>
+        <v>1.005336770626802</v>
       </c>
       <c r="I3">
-        <v>1.000519045043411</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="J3">
-        <v>0.9979662883032179</v>
+        <v>0.978874146433716</v>
       </c>
       <c r="K3">
-        <v>1.000519045043411</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="L3">
-        <v>1.000502526645789</v>
+        <v>1.005336770626802</v>
       </c>
       <c r="M3">
-        <v>0.9992344074745036</v>
+        <v>0.9921054585302589</v>
       </c>
       <c r="N3">
-        <v>0.9992344074745036</v>
+        <v>0.9921054585302589</v>
       </c>
       <c r="O3">
-        <v>0.9991180313626803</v>
+        <v>0.9908519514289145</v>
       </c>
       <c r="P3">
-        <v>0.9996626199974727</v>
+        <v>0.9964642743251689</v>
       </c>
       <c r="Q3">
-        <v>0.9996626199974727</v>
+        <v>0.9964642743251689</v>
       </c>
       <c r="R3">
-        <v>0.9998767262589572</v>
+        <v>0.9986436822226239</v>
       </c>
       <c r="S3">
-        <v>0.9998767262589572</v>
+        <v>0.9986436822226239</v>
       </c>
       <c r="T3">
-        <v>0.9999529030832984</v>
+        <v>0.9995483805955819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002581527818124</v>
+        <v>1.013051082741343</v>
       </c>
       <c r="D4">
-        <v>0.9978480652736793</v>
+        <v>0.9893351900018639</v>
       </c>
       <c r="E4">
-        <v>1.001001467538597</v>
+        <v>1.004740041686546</v>
       </c>
       <c r="F4">
-        <v>1.00097938565425</v>
+        <v>1.004841944491241</v>
       </c>
       <c r="G4">
-        <v>0.9960742767011835</v>
+        <v>0.9806699649627225</v>
       </c>
       <c r="H4">
-        <v>1.000970296424139</v>
+        <v>1.004883877126352</v>
       </c>
       <c r="I4">
-        <v>1.001001467538597</v>
+        <v>1.004740041686546</v>
       </c>
       <c r="J4">
-        <v>0.9960742767011835</v>
+        <v>0.9806699649627225</v>
       </c>
       <c r="K4">
-        <v>1.001001467538597</v>
+        <v>1.004740041686546</v>
       </c>
       <c r="L4">
-        <v>1.000970296424139</v>
+        <v>1.004883877126352</v>
       </c>
       <c r="M4">
-        <v>0.9985222865626615</v>
+        <v>0.9927769210445372</v>
       </c>
       <c r="N4">
-        <v>0.9985222865626615</v>
+        <v>0.9927769210445372</v>
       </c>
       <c r="O4">
-        <v>0.9982975461330007</v>
+        <v>0.991629677363646</v>
       </c>
       <c r="P4">
-        <v>0.9993486802213066</v>
+        <v>0.9967646279252067</v>
       </c>
       <c r="Q4">
-        <v>0.9993486802213066</v>
+        <v>0.9967646279252067</v>
       </c>
       <c r="R4">
-        <v>0.9997618770506291</v>
+        <v>0.9987584813655415</v>
       </c>
       <c r="S4">
-        <v>0.9997618770506291</v>
+        <v>0.9987584813655415</v>
       </c>
       <c r="T4">
-        <v>0.9999091699016621</v>
+        <v>0.9995870168350113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004948358787556</v>
+        <v>1.016563035013477</v>
       </c>
       <c r="D5">
-        <v>0.9958761212419471</v>
+        <v>0.9864612516442058</v>
       </c>
       <c r="E5">
-        <v>1.001918111794264</v>
+        <v>1.006021756549865</v>
       </c>
       <c r="F5">
-        <v>1.001876797027174</v>
+        <v>1.00614697328841</v>
       </c>
       <c r="G5">
-        <v>0.9924774987940739</v>
+        <v>0.975458471967655</v>
       </c>
       <c r="H5">
-        <v>1.001859800985176</v>
+        <v>1.006198506145552</v>
       </c>
       <c r="I5">
-        <v>1.001918111794264</v>
+        <v>1.006021756549865</v>
       </c>
       <c r="J5">
-        <v>0.9924774987940739</v>
+        <v>0.975458471967655</v>
       </c>
       <c r="K5">
-        <v>1.001918111794264</v>
+        <v>1.006021756549865</v>
       </c>
       <c r="L5">
-        <v>1.001859800985176</v>
+        <v>1.006198506145552</v>
       </c>
       <c r="M5">
-        <v>0.9971686498896248</v>
+        <v>0.9908284890566035</v>
       </c>
       <c r="N5">
-        <v>0.9971686498896248</v>
+        <v>0.9908284890566035</v>
       </c>
       <c r="O5">
-        <v>0.9967378070070656</v>
+        <v>0.9893727432524709</v>
       </c>
       <c r="P5">
-        <v>0.998751803857838</v>
+        <v>0.9958929115543574</v>
       </c>
       <c r="Q5">
-        <v>0.998751803857838</v>
+        <v>0.9958929115543574</v>
       </c>
       <c r="R5">
-        <v>0.9995433808419446</v>
+        <v>0.9984251228032345</v>
       </c>
       <c r="S5">
-        <v>0.9995433808419446</v>
+        <v>0.9984251228032345</v>
       </c>
       <c r="T5">
-        <v>0.9998261147716986</v>
+        <v>0.9994749991015275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007258501653394</v>
+        <v>1.018717952954546</v>
       </c>
       <c r="D6">
-        <v>0.9939516053757598</v>
+        <v>0.9846987894318177</v>
       </c>
       <c r="E6">
-        <v>1.002812487454898</v>
+        <v>1.006806749318182</v>
       </c>
       <c r="F6">
-        <v>1.002752606311215</v>
+        <v>1.006947236818182</v>
       </c>
       <c r="G6">
-        <v>0.9889673632249761</v>
+        <v>0.9722630588636374</v>
       </c>
       <c r="H6">
-        <v>1.002727975626326</v>
+        <v>1.007005062556818</v>
       </c>
       <c r="I6">
-        <v>1.002812487454898</v>
+        <v>1.006806749318182</v>
       </c>
       <c r="J6">
-        <v>0.9889673632249761</v>
+        <v>0.9722630588636374</v>
       </c>
       <c r="K6">
-        <v>1.002812487454898</v>
+        <v>1.006806749318182</v>
       </c>
       <c r="L6">
-        <v>1.002727975626326</v>
+        <v>1.007005062556818</v>
       </c>
       <c r="M6">
-        <v>0.9958476694256513</v>
+        <v>0.9896340607102275</v>
       </c>
       <c r="N6">
-        <v>0.9958476694256513</v>
+        <v>0.9896340607102275</v>
       </c>
       <c r="O6">
-        <v>0.9952156480756874</v>
+        <v>0.9879889702840909</v>
       </c>
       <c r="P6">
-        <v>0.9981692754354002</v>
+        <v>0.9953582902462124</v>
       </c>
       <c r="Q6">
-        <v>0.9981692754354002</v>
+        <v>0.9953582902462124</v>
       </c>
       <c r="R6">
-        <v>0.9993300784402748</v>
+        <v>0.9982204050142047</v>
       </c>
       <c r="S6">
-        <v>0.9993300784402748</v>
+        <v>0.9982204050142047</v>
       </c>
       <c r="T6">
-        <v>0.9997450899410949</v>
+        <v>0.9994064749905304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000097498838638</v>
+        <v>1.008140310217233</v>
       </c>
       <c r="D7">
-        <v>0.9999205942349662</v>
+        <v>0.9935246451196327</v>
       </c>
       <c r="E7">
-        <v>1.000035008960775</v>
+        <v>1.002690560479755</v>
       </c>
       <c r="F7">
-        <v>1.000036036597626</v>
+        <v>1.002929959896048</v>
       </c>
       <c r="G7">
-        <v>0.9998562386246512</v>
+        <v>0.988368818649486</v>
       </c>
       <c r="H7">
-        <v>1.000036455292438</v>
+        <v>1.003028478743294</v>
       </c>
       <c r="I7">
-        <v>1.000035008960775</v>
+        <v>1.002690560479755</v>
       </c>
       <c r="J7">
-        <v>0.9998562386246512</v>
+        <v>0.988368818649486</v>
       </c>
       <c r="K7">
-        <v>1.000035008960775</v>
+        <v>1.002690560479755</v>
       </c>
       <c r="L7">
-        <v>1.000036455292438</v>
+        <v>1.003028478743294</v>
       </c>
       <c r="M7">
-        <v>0.9999463469585448</v>
+        <v>0.9956986486963901</v>
       </c>
       <c r="N7">
-        <v>0.9999463469585448</v>
+        <v>0.9956986486963901</v>
       </c>
       <c r="O7">
-        <v>0.9999377627173519</v>
+        <v>0.994973980837471</v>
       </c>
       <c r="P7">
-        <v>0.9999759009592882</v>
+        <v>0.9980292859575117</v>
       </c>
       <c r="Q7">
-        <v>0.9999759009592882</v>
+        <v>0.9980292859575117</v>
       </c>
       <c r="R7">
-        <v>0.99999067795966</v>
+        <v>0.9991946045880725</v>
       </c>
       <c r="S7">
-        <v>0.99999067795966</v>
+        <v>0.9991946045880725</v>
       </c>
       <c r="T7">
-        <v>0.9999969720915157</v>
+        <v>0.9997804621842414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000248450067376</v>
+        <v>1.008455316609172</v>
       </c>
       <c r="D8">
-        <v>0.999797608910109</v>
+        <v>0.9932676715771742</v>
       </c>
       <c r="E8">
-        <v>1.000089282667622</v>
+        <v>1.00280431016725</v>
       </c>
       <c r="F8">
-        <v>1.00009185291688</v>
+        <v>1.003046604259772</v>
       </c>
       <c r="G8">
-        <v>0.9996335449720898</v>
+        <v>0.9879033132086472</v>
       </c>
       <c r="H8">
-        <v>1.000092906445428</v>
+        <v>1.003146314203467</v>
       </c>
       <c r="I8">
-        <v>1.000089282667622</v>
+        <v>1.00280431016725</v>
       </c>
       <c r="J8">
-        <v>0.9996335449720898</v>
+        <v>0.9879033132086472</v>
       </c>
       <c r="K8">
-        <v>1.000089282667622</v>
+        <v>1.00280431016725</v>
       </c>
       <c r="L8">
-        <v>1.000092906445428</v>
+        <v>1.003146314203467</v>
       </c>
       <c r="M8">
-        <v>0.9998632257087587</v>
+        <v>0.9955248137060572</v>
       </c>
       <c r="N8">
-        <v>0.9998632257087587</v>
+        <v>0.9955248137060572</v>
       </c>
       <c r="O8">
-        <v>0.9998413534425422</v>
+        <v>0.9947724329964295</v>
       </c>
       <c r="P8">
-        <v>0.9999385780283797</v>
+        <v>0.9979513125264549</v>
       </c>
       <c r="Q8">
-        <v>0.9999385780283797</v>
+        <v>0.9979513125264549</v>
       </c>
       <c r="R8">
-        <v>0.9999762541881903</v>
+        <v>0.9991645619366536</v>
       </c>
       <c r="S8">
-        <v>0.9999762541881903</v>
+        <v>0.9991645619366536</v>
       </c>
       <c r="T8">
-        <v>0.9999922743299173</v>
+        <v>0.9997705883375803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00034770920793</v>
+        <v>1.008725036621655</v>
       </c>
       <c r="D9">
-        <v>0.9997166190084714</v>
+        <v>0.9930483752862808</v>
       </c>
       <c r="E9">
-        <v>1.000125150448637</v>
+        <v>1.002900601927183</v>
       </c>
       <c r="F9">
-        <v>1.000128616174315</v>
+        <v>1.003146104968136</v>
       </c>
       <c r="G9">
-        <v>0.9994868218626139</v>
+        <v>0.9875064986868262</v>
       </c>
       <c r="H9">
-        <v>1.000130038346019</v>
+        <v>1.003247135450101</v>
       </c>
       <c r="I9">
-        <v>1.000125150448637</v>
+        <v>1.002900601927183</v>
       </c>
       <c r="J9">
-        <v>0.9994868218626139</v>
+        <v>0.9875064986868262</v>
       </c>
       <c r="K9">
-        <v>1.000125150448637</v>
+        <v>1.002900601927183</v>
       </c>
       <c r="L9">
-        <v>1.000130038346019</v>
+        <v>1.003247135450101</v>
       </c>
       <c r="M9">
-        <v>0.9998084301043162</v>
+        <v>0.9953768170684636</v>
       </c>
       <c r="N9">
-        <v>0.9998084301043162</v>
+        <v>0.9953768170684636</v>
       </c>
       <c r="O9">
-        <v>0.9997778264057012</v>
+        <v>0.994600669807736</v>
       </c>
       <c r="P9">
-        <v>0.9999140035524231</v>
+        <v>0.9978847453547036</v>
       </c>
       <c r="Q9">
-        <v>0.9999140035524231</v>
+        <v>0.9978847453547036</v>
       </c>
       <c r="R9">
-        <v>0.9999667902764765</v>
+        <v>0.9991387094978235</v>
       </c>
       <c r="S9">
-        <v>0.9999667902764765</v>
+        <v>0.9991387094978235</v>
       </c>
       <c r="T9">
-        <v>0.9999891591746644</v>
+        <v>0.999762292156697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00074976549797</v>
+        <v>1.00936042654023</v>
       </c>
       <c r="D10">
-        <v>0.9993889652686383</v>
+        <v>0.9925299857962487</v>
       </c>
       <c r="E10">
-        <v>1.000269835891088</v>
+        <v>1.003130127285645</v>
       </c>
       <c r="F10">
-        <v>1.000277326105611</v>
+        <v>1.003381413265542</v>
       </c>
       <c r="G10">
-        <v>0.9988934760484469</v>
+        <v>0.9865674068898895</v>
       </c>
       <c r="H10">
-        <v>1.000280401739096</v>
+        <v>1.003484823430487</v>
       </c>
       <c r="I10">
-        <v>1.000269835891088</v>
+        <v>1.003130127285645</v>
       </c>
       <c r="J10">
-        <v>0.9988934760484469</v>
+        <v>0.9865674068898895</v>
       </c>
       <c r="K10">
-        <v>1.000269835891088</v>
+        <v>1.003130127285645</v>
       </c>
       <c r="L10">
-        <v>1.000280401739096</v>
+        <v>1.003484823430487</v>
       </c>
       <c r="M10">
-        <v>0.9995869388937713</v>
+        <v>0.995026115160188</v>
       </c>
       <c r="N10">
-        <v>0.9995869388937713</v>
+        <v>0.995026115160188</v>
       </c>
       <c r="O10">
-        <v>0.9995209476853937</v>
+        <v>0.994194072038875</v>
       </c>
       <c r="P10">
-        <v>0.9998145712262102</v>
+        <v>0.9977274525353401</v>
       </c>
       <c r="Q10">
-        <v>0.9998145712262102</v>
+        <v>0.9977274525353401</v>
       </c>
       <c r="R10">
-        <v>0.9999283873924297</v>
+        <v>0.9990781212229163</v>
       </c>
       <c r="S10">
-        <v>0.9999283873924297</v>
+        <v>0.9990781212229163</v>
       </c>
       <c r="T10">
-        <v>0.9999766284251418</v>
+        <v>0.9997423638680069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001243342275259</v>
+        <v>1.001460883193413</v>
       </c>
       <c r="D11">
-        <v>0.9989864230237224</v>
+        <v>0.9987829459745278</v>
       </c>
       <c r="E11">
-        <v>1.000447904345154</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="F11">
-        <v>1.000460038588926</v>
+        <v>1.000553864583935</v>
       </c>
       <c r="G11">
-        <v>0.9981643413154863</v>
+        <v>0.9977801839470487</v>
       </c>
       <c r="H11">
-        <v>1.000465027041169</v>
+        <v>1.000549015190798</v>
       </c>
       <c r="I11">
-        <v>1.000447904345154</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="J11">
-        <v>0.9981643413154863</v>
+        <v>0.9977801839470487</v>
       </c>
       <c r="K11">
-        <v>1.000447904345154</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="L11">
-        <v>1.000465027041169</v>
+        <v>1.000549015190798</v>
       </c>
       <c r="M11">
-        <v>0.9993146841783278</v>
+        <v>0.9991645995689236</v>
       </c>
       <c r="N11">
-        <v>0.9993146841783278</v>
+        <v>0.9991645995689236</v>
       </c>
       <c r="O11">
-        <v>0.9992052637934593</v>
+        <v>0.999037381704125</v>
       </c>
       <c r="P11">
-        <v>0.9996924242339368</v>
+        <v>0.9996316124564345</v>
       </c>
       <c r="Q11">
-        <v>0.9996924242339368</v>
+        <v>0.9996316124564345</v>
       </c>
       <c r="R11">
-        <v>0.9998812942617412</v>
+        <v>0.99986511890019</v>
       </c>
       <c r="S11">
-        <v>0.9998812942617412</v>
+        <v>0.99986511890019</v>
       </c>
       <c r="T11">
-        <v>0.9999611794316196</v>
+        <v>0.9999487551868634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9888456298233126</v>
+        <v>1.00069936294785</v>
       </c>
       <c r="D12">
-        <v>1.008979219520659</v>
+        <v>0.9994184074365656</v>
       </c>
       <c r="E12">
-        <v>0.996153154398043</v>
+        <v>1.00026921535822</v>
       </c>
       <c r="F12">
-        <v>0.9959309568614352</v>
+        <v>1.000264617476105</v>
       </c>
       <c r="G12">
-        <v>1.016193888586086</v>
+        <v>0.9989398306230498</v>
       </c>
       <c r="H12">
-        <v>0.995839515633447</v>
+        <v>1.000262721426078</v>
       </c>
       <c r="I12">
-        <v>0.996153154398043</v>
+        <v>1.00026921535822</v>
       </c>
       <c r="J12">
-        <v>1.016193888586086</v>
+        <v>0.9989398306230498</v>
       </c>
       <c r="K12">
-        <v>0.996153154398043</v>
+        <v>1.00026921535822</v>
       </c>
       <c r="L12">
-        <v>0.995839515633447</v>
+        <v>1.000262721426078</v>
       </c>
       <c r="M12">
-        <v>1.006016702109766</v>
+        <v>0.9996012760245638</v>
       </c>
       <c r="N12">
-        <v>1.006016702109766</v>
+        <v>0.9996012760245638</v>
       </c>
       <c r="O12">
-        <v>1.007004207913397</v>
+        <v>0.9995403198285645</v>
       </c>
       <c r="P12">
-        <v>1.002728852872525</v>
+        <v>0.999823922469116</v>
       </c>
       <c r="Q12">
-        <v>1.002728852872525</v>
+        <v>0.9998239224691159</v>
       </c>
       <c r="R12">
-        <v>1.001084928253905</v>
+        <v>0.9999352456913919</v>
       </c>
       <c r="S12">
-        <v>1.001084928253905</v>
+        <v>0.9999352456913919</v>
       </c>
       <c r="T12">
-        <v>1.000323727470497</v>
+        <v>0.9999756925446448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9972987008390212</v>
+        <v>1.00235435906497</v>
       </c>
       <c r="D13">
-        <v>1.002323846036044</v>
+        <v>0.9980405274242566</v>
       </c>
       <c r="E13">
-        <v>0.9988435240341823</v>
+        <v>1.000908678261447</v>
       </c>
       <c r="F13">
-        <v>0.998938403644375</v>
+        <v>1.000891619972686</v>
       </c>
       <c r="G13">
-        <v>1.004281537449279</v>
+        <v>0.9964271991039932</v>
       </c>
       <c r="H13">
-        <v>0.9989774478140858</v>
+        <v>1.000884599217382</v>
       </c>
       <c r="I13">
-        <v>0.9988435240341823</v>
+        <v>1.000908678261447</v>
       </c>
       <c r="J13">
-        <v>1.004281537449279</v>
+        <v>0.9964271991039932</v>
       </c>
       <c r="K13">
-        <v>0.9988435240341823</v>
+        <v>1.000908678261447</v>
       </c>
       <c r="L13">
-        <v>0.9989774478140858</v>
+        <v>1.000884599217382</v>
       </c>
       <c r="M13">
-        <v>1.001629492631682</v>
+        <v>0.9986558991606876</v>
       </c>
       <c r="N13">
-        <v>1.001629492631682</v>
+        <v>0.9986558991606876</v>
       </c>
       <c r="O13">
-        <v>1.001860943766469</v>
+        <v>0.998450775248544</v>
       </c>
       <c r="P13">
-        <v>1.000700836432516</v>
+        <v>0.9994068255276073</v>
       </c>
       <c r="Q13">
-        <v>1.000700836432516</v>
+        <v>0.9994068255276073</v>
       </c>
       <c r="R13">
-        <v>1.000236508332932</v>
+        <v>0.9997822887110672</v>
       </c>
       <c r="S13">
-        <v>1.000236508332932</v>
+        <v>0.9997822887110672</v>
       </c>
       <c r="T13">
-        <v>1.000110576636164</v>
+        <v>0.999917830507456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9888323744684009</v>
+        <v>1.003730112186912</v>
       </c>
       <c r="D14">
-        <v>1.00897834241764</v>
+        <v>0.9968918508126535</v>
       </c>
       <c r="E14">
-        <v>0.9961659865889145</v>
+        <v>1.001445179780501</v>
       </c>
       <c r="F14">
-        <v>0.9959320169001692</v>
+        <v>1.001414502497259</v>
       </c>
       <c r="G14">
-        <v>1.016185282777185</v>
+        <v>0.9943306057989177</v>
       </c>
       <c r="H14">
-        <v>0.9958357270684536</v>
+        <v>1.00140188691974</v>
       </c>
       <c r="I14">
-        <v>0.9961659865889145</v>
+        <v>1.001445179780501</v>
       </c>
       <c r="J14">
-        <v>1.016185282777185</v>
+        <v>0.9943306057989177</v>
       </c>
       <c r="K14">
-        <v>0.9961659865889145</v>
+        <v>1.001445179780501</v>
       </c>
       <c r="L14">
-        <v>0.9958357270684536</v>
+        <v>1.00140188691974</v>
       </c>
       <c r="M14">
-        <v>1.006010504922819</v>
+        <v>0.9978662463593289</v>
       </c>
       <c r="N14">
-        <v>1.006010504922819</v>
+        <v>0.9978662463593289</v>
       </c>
       <c r="O14">
-        <v>1.006999784087759</v>
+        <v>0.9975414478437704</v>
       </c>
       <c r="P14">
-        <v>1.002728998811518</v>
+        <v>0.9990592241663863</v>
       </c>
       <c r="Q14">
-        <v>1.002728998811518</v>
+        <v>0.9990592241663863</v>
       </c>
       <c r="R14">
-        <v>1.001088245755867</v>
+        <v>0.999655713069915</v>
       </c>
       <c r="S14">
-        <v>1.001088245755867</v>
+        <v>0.999655713069915</v>
       </c>
       <c r="T14">
-        <v>1.000321621703461</v>
+        <v>0.9998690229993304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.99730459539724</v>
+        <v>1.001336934405141</v>
       </c>
       <c r="D15">
-        <v>1.002323897636629</v>
+        <v>0.9988852791390335</v>
       </c>
       <c r="E15">
-        <v>0.9988383306202269</v>
+        <v>1.000519045043411</v>
       </c>
       <c r="F15">
-        <v>0.9989381065659431</v>
+        <v>1.000507344963198</v>
       </c>
       <c r="G15">
-        <v>1.004284544148603</v>
+        <v>0.9979662883032179</v>
       </c>
       <c r="H15">
-        <v>0.9989791665705556</v>
+        <v>1.000502526645789</v>
       </c>
       <c r="I15">
-        <v>0.9988383306202269</v>
+        <v>1.000519045043411</v>
       </c>
       <c r="J15">
-        <v>1.004284544148603</v>
+        <v>0.9979662883032179</v>
       </c>
       <c r="K15">
-        <v>0.9988383306202269</v>
+        <v>1.000519045043411</v>
       </c>
       <c r="L15">
-        <v>0.9989791665705556</v>
+        <v>1.000502526645789</v>
       </c>
       <c r="M15">
-        <v>1.001631855359579</v>
+        <v>0.9992344074745036</v>
       </c>
       <c r="N15">
-        <v>1.001631855359579</v>
+        <v>0.9992344074745036</v>
       </c>
       <c r="O15">
-        <v>1.001862536118596</v>
+        <v>0.9991180313626803</v>
       </c>
       <c r="P15">
-        <v>1.000700680446462</v>
+        <v>0.9996626199974727</v>
       </c>
       <c r="Q15">
-        <v>1.000700680446462</v>
+        <v>0.9996626199974727</v>
       </c>
       <c r="R15">
-        <v>1.000235092989903</v>
+        <v>0.9998767262589572</v>
       </c>
       <c r="S15">
-        <v>1.000235092989903</v>
+        <v>0.9998767262589572</v>
       </c>
       <c r="T15">
-        <v>1.000111440156533</v>
+        <v>0.9999529030832984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.026107189968874</v>
+        <v>1.002581527818124</v>
       </c>
       <c r="D16">
-        <v>0.9782583292607199</v>
+        <v>0.9978480652736793</v>
       </c>
       <c r="E16">
-        <v>1.010096275056794</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="F16">
-        <v>1.009893880976428</v>
+        <v>1.00097938565425</v>
       </c>
       <c r="G16">
-        <v>0.9603494844079044</v>
+        <v>0.9960742767011835</v>
       </c>
       <c r="H16">
-        <v>1.009810594019757</v>
+        <v>1.000970296424139</v>
       </c>
       <c r="I16">
-        <v>1.010096275056794</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="J16">
-        <v>0.9603494844079044</v>
+        <v>0.9960742767011835</v>
       </c>
       <c r="K16">
-        <v>1.010096275056794</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="L16">
-        <v>1.009810594019757</v>
+        <v>1.000970296424139</v>
       </c>
       <c r="M16">
-        <v>0.9850800392138309</v>
+        <v>0.9985222865626615</v>
       </c>
       <c r="N16">
-        <v>0.9850800392138309</v>
+        <v>0.9985222865626615</v>
       </c>
       <c r="O16">
-        <v>0.9828061358961273</v>
+        <v>0.9982975461330007</v>
       </c>
       <c r="P16">
-        <v>0.9934187844948186</v>
+        <v>0.9993486802213066</v>
       </c>
       <c r="Q16">
-        <v>0.9934187844948186</v>
+        <v>0.9993486802213066</v>
       </c>
       <c r="R16">
-        <v>0.9975881571353125</v>
+        <v>0.9997618770506291</v>
       </c>
       <c r="S16">
-        <v>0.9975881571353125</v>
+        <v>0.9997618770506291</v>
       </c>
       <c r="T16">
-        <v>0.999085958948413</v>
+        <v>0.9999091699016621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.021436688948143</v>
+        <v>1.004948358787556</v>
       </c>
       <c r="D17">
-        <v>0.982211155939978</v>
+        <v>0.9958761212419471</v>
       </c>
       <c r="E17">
-        <v>1.00819474356726</v>
+        <v>1.001918111794264</v>
       </c>
       <c r="F17">
-        <v>1.008091597227036</v>
+        <v>1.001876797027174</v>
       </c>
       <c r="G17">
-        <v>0.9675953889860317</v>
+        <v>0.9924774987940739</v>
       </c>
       <c r="H17">
-        <v>1.008049151017486</v>
+        <v>1.001859800985176</v>
       </c>
       <c r="I17">
-        <v>1.00819474356726</v>
+        <v>1.001918111794264</v>
       </c>
       <c r="J17">
-        <v>0.9675953889860317</v>
+        <v>0.9924774987940739</v>
       </c>
       <c r="K17">
-        <v>1.00819474356726</v>
+        <v>1.001918111794264</v>
       </c>
       <c r="L17">
-        <v>1.008049151017486</v>
+        <v>1.001859800985176</v>
       </c>
       <c r="M17">
-        <v>0.9878222700017589</v>
+        <v>0.9971686498896248</v>
       </c>
       <c r="N17">
-        <v>0.9878222700017589</v>
+        <v>0.9971686498896248</v>
       </c>
       <c r="O17">
-        <v>0.9859518986478321</v>
+        <v>0.9967378070070656</v>
       </c>
       <c r="P17">
-        <v>0.9946130945235926</v>
+        <v>0.998751803857838</v>
       </c>
       <c r="Q17">
-        <v>0.9946130945235926</v>
+        <v>0.998751803857838</v>
       </c>
       <c r="R17">
-        <v>0.9980085067845094</v>
+        <v>0.9995433808419446</v>
       </c>
       <c r="S17">
-        <v>0.9980085067845094</v>
+        <v>0.9995433808419446</v>
       </c>
       <c r="T17">
-        <v>0.9992631209476559</v>
+        <v>0.9998261147716986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.012041978988502</v>
+        <v>1.007258501653394</v>
       </c>
       <c r="D18">
-        <v>0.9901593666621574</v>
+        <v>0.9939516053757598</v>
       </c>
       <c r="E18">
-        <v>1.004374176921539</v>
+        <v>1.002812487454898</v>
       </c>
       <c r="F18">
-        <v>1.004467782112022</v>
+        <v>1.002752606311215</v>
       </c>
       <c r="G18">
-        <v>0.9821635385110625</v>
+        <v>0.9889673632249761</v>
       </c>
       <c r="H18">
-        <v>1.004506300236515</v>
+        <v>1.002727975626326</v>
       </c>
       <c r="I18">
-        <v>1.004374176921539</v>
+        <v>1.002812487454898</v>
       </c>
       <c r="J18">
-        <v>0.9821635385110625</v>
+        <v>0.9889673632249761</v>
       </c>
       <c r="K18">
-        <v>1.004374176921539</v>
+        <v>1.002812487454898</v>
       </c>
       <c r="L18">
-        <v>1.004506300236515</v>
+        <v>1.002727975626326</v>
       </c>
       <c r="M18">
-        <v>0.9933349193737888</v>
+        <v>0.9958476694256513</v>
       </c>
       <c r="N18">
-        <v>0.9933349193737888</v>
+        <v>0.9958476694256513</v>
       </c>
       <c r="O18">
-        <v>0.9922764018032449</v>
+        <v>0.9952156480756874</v>
       </c>
       <c r="P18">
-        <v>0.9970146718897057</v>
+        <v>0.9981692754354002</v>
       </c>
       <c r="Q18">
-        <v>0.9970146718897057</v>
+        <v>0.9981692754354002</v>
       </c>
       <c r="R18">
-        <v>0.9988545481476641</v>
+        <v>0.9993300784402748</v>
       </c>
       <c r="S18">
-        <v>0.9988545481476641</v>
+        <v>0.9993300784402748</v>
       </c>
       <c r="T18">
-        <v>0.9996188572386329</v>
+        <v>0.9997450899410949</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.013180663884439</v>
+        <v>1.000097498838638</v>
       </c>
       <c r="D19">
-        <v>0.9892589119512816</v>
+        <v>0.9999205942349662</v>
       </c>
       <c r="E19">
-        <v>1.00474251289466</v>
+        <v>1.000035008960775</v>
       </c>
       <c r="F19">
-        <v>1.004874912030342</v>
+        <v>1.000036036597626</v>
       </c>
       <c r="G19">
-        <v>0.9805493904798864</v>
+        <v>0.9998562386246512</v>
       </c>
       <c r="H19">
-        <v>1.004929401316311</v>
+        <v>1.000036455292438</v>
       </c>
       <c r="I19">
-        <v>1.00474251289466</v>
+        <v>1.000035008960775</v>
       </c>
       <c r="J19">
-        <v>0.9805493904798864</v>
+        <v>0.9998562386246512</v>
       </c>
       <c r="K19">
-        <v>1.00474251289466</v>
+        <v>1.000035008960775</v>
       </c>
       <c r="L19">
-        <v>1.004929401316311</v>
+        <v>1.000036455292438</v>
       </c>
       <c r="M19">
-        <v>0.9927393958980988</v>
+        <v>0.9999463469585448</v>
       </c>
       <c r="N19">
-        <v>0.9927393958980988</v>
+        <v>0.9999463469585448</v>
       </c>
       <c r="O19">
-        <v>0.9915792345824931</v>
+        <v>0.9999377627173519</v>
       </c>
       <c r="P19">
-        <v>0.9967404348969525</v>
+        <v>0.9999759009592882</v>
       </c>
       <c r="Q19">
-        <v>0.9967404348969525</v>
+        <v>0.9999759009592882</v>
       </c>
       <c r="R19">
-        <v>0.9987409543963794</v>
+        <v>0.99999067795966</v>
       </c>
       <c r="S19">
-        <v>0.9987409543963794</v>
+        <v>0.99999067795966</v>
       </c>
       <c r="T19">
-        <v>0.9995892987594867</v>
+        <v>0.9999969720915157</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000004167461921</v>
+        <v>1.000248450067376</v>
       </c>
       <c r="D20">
-        <v>0.9999953535447956</v>
+        <v>0.999797608910109</v>
       </c>
       <c r="E20">
-        <v>1.000003381626416</v>
+        <v>1.000089282667622</v>
       </c>
       <c r="F20">
-        <v>1.000002179726511</v>
+        <v>1.00009185291688</v>
       </c>
       <c r="G20">
-        <v>0.9999908403100667</v>
+        <v>0.9996335449720898</v>
       </c>
       <c r="H20">
-        <v>1.000001680990999</v>
+        <v>1.000092906445428</v>
       </c>
       <c r="I20">
-        <v>1.000003381626416</v>
+        <v>1.000089282667622</v>
       </c>
       <c r="J20">
-        <v>0.9999908403100667</v>
+        <v>0.9996335449720898</v>
       </c>
       <c r="K20">
-        <v>1.000003381626416</v>
+        <v>1.000089282667622</v>
       </c>
       <c r="L20">
-        <v>1.000001680990999</v>
+        <v>1.000092906445428</v>
       </c>
       <c r="M20">
-        <v>0.999996260650533</v>
+        <v>0.9998632257087587</v>
       </c>
       <c r="N20">
-        <v>0.999996260650533</v>
+        <v>0.9998632257087587</v>
       </c>
       <c r="O20">
-        <v>0.9999959582819539</v>
+        <v>0.9998413534425422</v>
       </c>
       <c r="P20">
-        <v>0.9999986343091608</v>
+        <v>0.9999385780283797</v>
       </c>
       <c r="Q20">
-        <v>0.9999986343091608</v>
+        <v>0.9999385780283797</v>
       </c>
       <c r="R20">
-        <v>0.9999998211384746</v>
+        <v>0.9999762541881903</v>
       </c>
       <c r="S20">
-        <v>0.9999998211384746</v>
+        <v>0.9999762541881903</v>
       </c>
       <c r="T20">
-        <v>0.9999996006101183</v>
+        <v>0.9999922743299173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000122421706267</v>
+        <v>1.00034770920793</v>
       </c>
       <c r="D21">
-        <v>0.9999026844663654</v>
+        <v>0.9997166190084714</v>
       </c>
       <c r="E21">
-        <v>1.00004036131163</v>
+        <v>1.000125150448637</v>
       </c>
       <c r="F21">
-        <v>1.000044029391928</v>
+        <v>1.000128616174315</v>
       </c>
       <c r="G21">
-        <v>0.9998252440252546</v>
+        <v>0.9994868218626139</v>
       </c>
       <c r="H21">
-        <v>1.000045535591986</v>
+        <v>1.000130038346019</v>
       </c>
       <c r="I21">
-        <v>1.00004036131163</v>
+        <v>1.000125150448637</v>
       </c>
       <c r="J21">
-        <v>0.9998252440252546</v>
+        <v>0.9994868218626139</v>
       </c>
       <c r="K21">
-        <v>1.00004036131163</v>
+        <v>1.000125150448637</v>
       </c>
       <c r="L21">
-        <v>1.000045535591986</v>
+        <v>1.000130038346019</v>
       </c>
       <c r="M21">
-        <v>0.9999353898086204</v>
+        <v>0.9998084301043162</v>
       </c>
       <c r="N21">
-        <v>0.9999353898086204</v>
+        <v>0.9998084301043162</v>
       </c>
       <c r="O21">
-        <v>0.9999244880278688</v>
+        <v>0.9997778264057012</v>
       </c>
       <c r="P21">
-        <v>0.9999703803096237</v>
+        <v>0.9999140035524231</v>
       </c>
       <c r="Q21">
-        <v>0.9999703803096237</v>
+        <v>0.9999140035524231</v>
       </c>
       <c r="R21">
-        <v>0.9999878755601254</v>
+        <v>0.9999667902764765</v>
       </c>
       <c r="S21">
-        <v>0.9999878755601254</v>
+        <v>0.9999667902764765</v>
       </c>
       <c r="T21">
-        <v>0.9999967127489052</v>
+        <v>0.9999891591746644</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000405160329111</v>
+        <v>1.00074976549797</v>
       </c>
       <c r="D22">
-        <v>0.9996565834865917</v>
+        <v>0.9993889652686383</v>
       </c>
       <c r="E22">
-        <v>1.000165724070764</v>
+        <v>1.000269835891088</v>
       </c>
       <c r="F22">
-        <v>1.000156604955105</v>
+        <v>1.000277326105611</v>
       </c>
       <c r="G22">
-        <v>0.99937019755737</v>
+        <v>0.9988934760484469</v>
       </c>
       <c r="H22">
-        <v>1.000152851995962</v>
+        <v>1.000280401739096</v>
       </c>
       <c r="I22">
-        <v>1.000165724070764</v>
+        <v>1.000269835891088</v>
       </c>
       <c r="J22">
-        <v>0.99937019755737</v>
+        <v>0.9988934760484469</v>
       </c>
       <c r="K22">
-        <v>1.000165724070764</v>
+        <v>1.000269835891088</v>
       </c>
       <c r="L22">
-        <v>1.000152851995962</v>
+        <v>1.000280401739096</v>
       </c>
       <c r="M22">
-        <v>0.999761524776666</v>
+        <v>0.9995869388937713</v>
       </c>
       <c r="N22">
-        <v>0.999761524776666</v>
+        <v>0.9995869388937713</v>
       </c>
       <c r="O22">
-        <v>0.9997265443466413</v>
+        <v>0.9995209476853937</v>
       </c>
       <c r="P22">
-        <v>0.9998962578746987</v>
+        <v>0.9998145712262102</v>
       </c>
       <c r="Q22">
-        <v>0.9998962578746989</v>
+        <v>0.9998145712262102</v>
       </c>
       <c r="R22">
-        <v>0.9999636244237153</v>
+        <v>0.9999283873924297</v>
       </c>
       <c r="S22">
-        <v>0.9999636244237153</v>
+        <v>0.9999283873924297</v>
       </c>
       <c r="T22">
-        <v>0.9999845203991508</v>
+        <v>0.9999766284251418</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001243342275259</v>
+      </c>
+      <c r="D23">
+        <v>0.9989864230237224</v>
+      </c>
+      <c r="E23">
+        <v>1.000447904345154</v>
+      </c>
+      <c r="F23">
+        <v>1.000460038588926</v>
+      </c>
+      <c r="G23">
+        <v>0.9981643413154863</v>
+      </c>
+      <c r="H23">
+        <v>1.000465027041169</v>
+      </c>
+      <c r="I23">
+        <v>1.000447904345154</v>
+      </c>
+      <c r="J23">
+        <v>0.9981643413154863</v>
+      </c>
+      <c r="K23">
+        <v>1.000447904345154</v>
+      </c>
+      <c r="L23">
+        <v>1.000465027041169</v>
+      </c>
+      <c r="M23">
+        <v>0.9993146841783278</v>
+      </c>
+      <c r="N23">
+        <v>0.9993146841783278</v>
+      </c>
+      <c r="O23">
+        <v>0.9992052637934593</v>
+      </c>
+      <c r="P23">
+        <v>0.9996924242339368</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996924242339368</v>
+      </c>
+      <c r="R23">
+        <v>0.9998812942617412</v>
+      </c>
+      <c r="S23">
+        <v>0.9998812942617412</v>
+      </c>
+      <c r="T23">
+        <v>0.9999611794316196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9888456298233126</v>
+      </c>
+      <c r="D24">
+        <v>1.008979219520659</v>
+      </c>
+      <c r="E24">
+        <v>0.996153154398043</v>
+      </c>
+      <c r="F24">
+        <v>0.9959309568614352</v>
+      </c>
+      <c r="G24">
+        <v>1.016193888586086</v>
+      </c>
+      <c r="H24">
+        <v>0.995839515633447</v>
+      </c>
+      <c r="I24">
+        <v>0.996153154398043</v>
+      </c>
+      <c r="J24">
+        <v>1.016193888586086</v>
+      </c>
+      <c r="K24">
+        <v>0.996153154398043</v>
+      </c>
+      <c r="L24">
+        <v>0.995839515633447</v>
+      </c>
+      <c r="M24">
+        <v>1.006016702109766</v>
+      </c>
+      <c r="N24">
+        <v>1.006016702109766</v>
+      </c>
+      <c r="O24">
+        <v>1.007004207913397</v>
+      </c>
+      <c r="P24">
+        <v>1.002728852872525</v>
+      </c>
+      <c r="Q24">
+        <v>1.002728852872525</v>
+      </c>
+      <c r="R24">
+        <v>1.001084928253905</v>
+      </c>
+      <c r="S24">
+        <v>1.001084928253905</v>
+      </c>
+      <c r="T24">
+        <v>1.000323727470497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9972987008390212</v>
+      </c>
+      <c r="D25">
+        <v>1.002323846036044</v>
+      </c>
+      <c r="E25">
+        <v>0.9988435240341823</v>
+      </c>
+      <c r="F25">
+        <v>0.998938403644375</v>
+      </c>
+      <c r="G25">
+        <v>1.004281537449279</v>
+      </c>
+      <c r="H25">
+        <v>0.9989774478140858</v>
+      </c>
+      <c r="I25">
+        <v>0.9988435240341823</v>
+      </c>
+      <c r="J25">
+        <v>1.004281537449279</v>
+      </c>
+      <c r="K25">
+        <v>0.9988435240341823</v>
+      </c>
+      <c r="L25">
+        <v>0.9989774478140858</v>
+      </c>
+      <c r="M25">
+        <v>1.001629492631682</v>
+      </c>
+      <c r="N25">
+        <v>1.001629492631682</v>
+      </c>
+      <c r="O25">
+        <v>1.001860943766469</v>
+      </c>
+      <c r="P25">
+        <v>1.000700836432516</v>
+      </c>
+      <c r="Q25">
+        <v>1.000700836432516</v>
+      </c>
+      <c r="R25">
+        <v>1.000236508332932</v>
+      </c>
+      <c r="S25">
+        <v>1.000236508332932</v>
+      </c>
+      <c r="T25">
+        <v>1.000110576636164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9888323744684009</v>
+      </c>
+      <c r="D26">
+        <v>1.00897834241764</v>
+      </c>
+      <c r="E26">
+        <v>0.9961659865889145</v>
+      </c>
+      <c r="F26">
+        <v>0.9959320169001692</v>
+      </c>
+      <c r="G26">
+        <v>1.016185282777185</v>
+      </c>
+      <c r="H26">
+        <v>0.9958357270684536</v>
+      </c>
+      <c r="I26">
+        <v>0.9961659865889145</v>
+      </c>
+      <c r="J26">
+        <v>1.016185282777185</v>
+      </c>
+      <c r="K26">
+        <v>0.9961659865889145</v>
+      </c>
+      <c r="L26">
+        <v>0.9958357270684536</v>
+      </c>
+      <c r="M26">
+        <v>1.006010504922819</v>
+      </c>
+      <c r="N26">
+        <v>1.006010504922819</v>
+      </c>
+      <c r="O26">
+        <v>1.006999784087759</v>
+      </c>
+      <c r="P26">
+        <v>1.002728998811518</v>
+      </c>
+      <c r="Q26">
+        <v>1.002728998811518</v>
+      </c>
+      <c r="R26">
+        <v>1.001088245755867</v>
+      </c>
+      <c r="S26">
+        <v>1.001088245755867</v>
+      </c>
+      <c r="T26">
+        <v>1.000321621703461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.99730459539724</v>
+      </c>
+      <c r="D27">
+        <v>1.002323897636629</v>
+      </c>
+      <c r="E27">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="F27">
+        <v>0.9989381065659431</v>
+      </c>
+      <c r="G27">
+        <v>1.004284544148603</v>
+      </c>
+      <c r="H27">
+        <v>0.9989791665705556</v>
+      </c>
+      <c r="I27">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="J27">
+        <v>1.004284544148603</v>
+      </c>
+      <c r="K27">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="L27">
+        <v>0.9989791665705556</v>
+      </c>
+      <c r="M27">
+        <v>1.001631855359579</v>
+      </c>
+      <c r="N27">
+        <v>1.001631855359579</v>
+      </c>
+      <c r="O27">
+        <v>1.001862536118596</v>
+      </c>
+      <c r="P27">
+        <v>1.000700680446462</v>
+      </c>
+      <c r="Q27">
+        <v>1.000700680446462</v>
+      </c>
+      <c r="R27">
+        <v>1.000235092989903</v>
+      </c>
+      <c r="S27">
+        <v>1.000235092989903</v>
+      </c>
+      <c r="T27">
+        <v>1.000111440156533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.026107189968874</v>
+      </c>
+      <c r="D28">
+        <v>0.9782583292607199</v>
+      </c>
+      <c r="E28">
+        <v>1.010096275056794</v>
+      </c>
+      <c r="F28">
+        <v>1.009893880976428</v>
+      </c>
+      <c r="G28">
+        <v>0.9603494844079044</v>
+      </c>
+      <c r="H28">
+        <v>1.009810594019757</v>
+      </c>
+      <c r="I28">
+        <v>1.010096275056794</v>
+      </c>
+      <c r="J28">
+        <v>0.9603494844079044</v>
+      </c>
+      <c r="K28">
+        <v>1.010096275056794</v>
+      </c>
+      <c r="L28">
+        <v>1.009810594019757</v>
+      </c>
+      <c r="M28">
+        <v>0.9850800392138309</v>
+      </c>
+      <c r="N28">
+        <v>0.9850800392138309</v>
+      </c>
+      <c r="O28">
+        <v>0.9828061358961273</v>
+      </c>
+      <c r="P28">
+        <v>0.9934187844948186</v>
+      </c>
+      <c r="Q28">
+        <v>0.9934187844948186</v>
+      </c>
+      <c r="R28">
+        <v>0.9975881571353125</v>
+      </c>
+      <c r="S28">
+        <v>0.9975881571353125</v>
+      </c>
+      <c r="T28">
+        <v>0.999085958948413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.021436688948143</v>
+      </c>
+      <c r="D29">
+        <v>0.982211155939978</v>
+      </c>
+      <c r="E29">
+        <v>1.00819474356726</v>
+      </c>
+      <c r="F29">
+        <v>1.008091597227036</v>
+      </c>
+      <c r="G29">
+        <v>0.9675953889860317</v>
+      </c>
+      <c r="H29">
+        <v>1.008049151017486</v>
+      </c>
+      <c r="I29">
+        <v>1.00819474356726</v>
+      </c>
+      <c r="J29">
+        <v>0.9675953889860317</v>
+      </c>
+      <c r="K29">
+        <v>1.00819474356726</v>
+      </c>
+      <c r="L29">
+        <v>1.008049151017486</v>
+      </c>
+      <c r="M29">
+        <v>0.9878222700017589</v>
+      </c>
+      <c r="N29">
+        <v>0.9878222700017589</v>
+      </c>
+      <c r="O29">
+        <v>0.9859518986478321</v>
+      </c>
+      <c r="P29">
+        <v>0.9946130945235926</v>
+      </c>
+      <c r="Q29">
+        <v>0.9946130945235926</v>
+      </c>
+      <c r="R29">
+        <v>0.9980085067845094</v>
+      </c>
+      <c r="S29">
+        <v>0.9980085067845094</v>
+      </c>
+      <c r="T29">
+        <v>0.9992631209476559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.012041978988502</v>
+      </c>
+      <c r="D30">
+        <v>0.9901593666621574</v>
+      </c>
+      <c r="E30">
+        <v>1.004374176921539</v>
+      </c>
+      <c r="F30">
+        <v>1.004467782112022</v>
+      </c>
+      <c r="G30">
+        <v>0.9821635385110625</v>
+      </c>
+      <c r="H30">
+        <v>1.004506300236515</v>
+      </c>
+      <c r="I30">
+        <v>1.004374176921539</v>
+      </c>
+      <c r="J30">
+        <v>0.9821635385110625</v>
+      </c>
+      <c r="K30">
+        <v>1.004374176921539</v>
+      </c>
+      <c r="L30">
+        <v>1.004506300236515</v>
+      </c>
+      <c r="M30">
+        <v>0.9933349193737888</v>
+      </c>
+      <c r="N30">
+        <v>0.9933349193737888</v>
+      </c>
+      <c r="O30">
+        <v>0.9922764018032449</v>
+      </c>
+      <c r="P30">
+        <v>0.9970146718897057</v>
+      </c>
+      <c r="Q30">
+        <v>0.9970146718897057</v>
+      </c>
+      <c r="R30">
+        <v>0.9988545481476641</v>
+      </c>
+      <c r="S30">
+        <v>0.9988545481476641</v>
+      </c>
+      <c r="T30">
+        <v>0.9996188572386329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.013180663884439</v>
+      </c>
+      <c r="D31">
+        <v>0.9892589119512816</v>
+      </c>
+      <c r="E31">
+        <v>1.00474251289466</v>
+      </c>
+      <c r="F31">
+        <v>1.004874912030342</v>
+      </c>
+      <c r="G31">
+        <v>0.9805493904798864</v>
+      </c>
+      <c r="H31">
+        <v>1.004929401316311</v>
+      </c>
+      <c r="I31">
+        <v>1.00474251289466</v>
+      </c>
+      <c r="J31">
+        <v>0.9805493904798864</v>
+      </c>
+      <c r="K31">
+        <v>1.00474251289466</v>
+      </c>
+      <c r="L31">
+        <v>1.004929401316311</v>
+      </c>
+      <c r="M31">
+        <v>0.9927393958980988</v>
+      </c>
+      <c r="N31">
+        <v>0.9927393958980988</v>
+      </c>
+      <c r="O31">
+        <v>0.9915792345824931</v>
+      </c>
+      <c r="P31">
+        <v>0.9967404348969525</v>
+      </c>
+      <c r="Q31">
+        <v>0.9967404348969525</v>
+      </c>
+      <c r="R31">
+        <v>0.9987409543963794</v>
+      </c>
+      <c r="S31">
+        <v>0.9987409543963794</v>
+      </c>
+      <c r="T31">
+        <v>0.9995892987594867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.030828920547945</v>
+      </c>
+      <c r="D32">
+        <v>0.9742718257534243</v>
+      </c>
+      <c r="E32">
+        <v>1.012004083561644</v>
+      </c>
+      <c r="F32">
+        <v>1.011710994520548</v>
+      </c>
+      <c r="G32">
+        <v>0.9530474284931509</v>
+      </c>
+      <c r="H32">
+        <v>1.01159038630137</v>
+      </c>
+      <c r="I32">
+        <v>1.012004083561644</v>
+      </c>
+      <c r="J32">
+        <v>0.9530474284931509</v>
+      </c>
+      <c r="K32">
+        <v>1.012004083561644</v>
+      </c>
+      <c r="L32">
+        <v>1.01159038630137</v>
+      </c>
+      <c r="M32">
+        <v>0.9823189073972604</v>
+      </c>
+      <c r="N32">
+        <v>0.9823189073972604</v>
+      </c>
+      <c r="O32">
+        <v>0.979636546849315</v>
+      </c>
+      <c r="P32">
+        <v>0.9922139661187216</v>
+      </c>
+      <c r="Q32">
+        <v>0.9922139661187216</v>
+      </c>
+      <c r="R32">
+        <v>0.9971614954794523</v>
+      </c>
+      <c r="S32">
+        <v>0.9971614954794523</v>
+      </c>
+      <c r="T32">
+        <v>0.9989089398630138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.013988627368421</v>
+      </c>
+      <c r="D33">
+        <v>0.9883787936842104</v>
+      </c>
+      <c r="E33">
+        <v>1.005367114736842</v>
+      </c>
+      <c r="F33">
+        <v>1.005286852105263</v>
+      </c>
+      <c r="G33">
+        <v>0.9788228542105264</v>
+      </c>
+      <c r="H33">
+        <v>1.005253827894737</v>
+      </c>
+      <c r="I33">
+        <v>1.005367114736842</v>
+      </c>
+      <c r="J33">
+        <v>0.9788228542105264</v>
+      </c>
+      <c r="K33">
+        <v>1.005367114736842</v>
+      </c>
+      <c r="L33">
+        <v>1.005253827894737</v>
+      </c>
+      <c r="M33">
+        <v>0.9920383410526317</v>
+      </c>
+      <c r="N33">
+        <v>0.9920383410526317</v>
+      </c>
+      <c r="O33">
+        <v>0.9908184919298245</v>
+      </c>
+      <c r="P33">
+        <v>0.9964812656140353</v>
+      </c>
+      <c r="Q33">
+        <v>0.9964812656140353</v>
+      </c>
+      <c r="R33">
+        <v>0.9987027278947369</v>
+      </c>
+      <c r="S33">
+        <v>0.9987027278947369</v>
+      </c>
+      <c r="T33">
+        <v>0.999516345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.014426614736842</v>
+      </c>
+      <c r="D34">
+        <v>0.9883926205263159</v>
+      </c>
+      <c r="E34">
+        <v>1.004966334210526</v>
+      </c>
+      <c r="F34">
+        <v>1.005259682105263</v>
+      </c>
+      <c r="G34">
+        <v>0.9790699068421053</v>
+      </c>
+      <c r="H34">
+        <v>1.005380401578948</v>
+      </c>
+      <c r="I34">
+        <v>1.004966334210526</v>
+      </c>
+      <c r="J34">
+        <v>0.9790699068421053</v>
+      </c>
+      <c r="K34">
+        <v>1.004966334210526</v>
+      </c>
+      <c r="L34">
+        <v>1.005380401578948</v>
+      </c>
+      <c r="M34">
+        <v>0.9922251542105265</v>
+      </c>
+      <c r="N34">
+        <v>0.9922251542105265</v>
+      </c>
+      <c r="O34">
+        <v>0.9909476429824563</v>
+      </c>
+      <c r="P34">
+        <v>0.9964722142105265</v>
+      </c>
+      <c r="Q34">
+        <v>0.9964722142105265</v>
+      </c>
+      <c r="R34">
+        <v>0.9985957442105264</v>
+      </c>
+      <c r="S34">
+        <v>0.9985957442105264</v>
+      </c>
+      <c r="T34">
+        <v>0.9995825933333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.048028837802456</v>
+      </c>
+      <c r="D35">
+        <v>0.9609071189023591</v>
+      </c>
+      <c r="E35">
+        <v>1.017211286608418</v>
+      </c>
+      <c r="F35">
+        <v>1.017739930091168</v>
+      </c>
+      <c r="G35">
+        <v>0.9292360345761207</v>
+      </c>
+      <c r="H35">
+        <v>1.017957487995727</v>
+      </c>
+      <c r="I35">
+        <v>1.017211286608418</v>
+      </c>
+      <c r="J35">
+        <v>0.9292360345761207</v>
+      </c>
+      <c r="K35">
+        <v>1.017211286608418</v>
+      </c>
+      <c r="L35">
+        <v>1.017957487995727</v>
+      </c>
+      <c r="M35">
+        <v>0.973596761285924</v>
+      </c>
+      <c r="N35">
+        <v>0.973596761285924</v>
+      </c>
+      <c r="O35">
+        <v>0.9693668804914024</v>
+      </c>
+      <c r="P35">
+        <v>0.9881349363934219</v>
+      </c>
+      <c r="Q35">
+        <v>0.9881349363934219</v>
+      </c>
+      <c r="R35">
+        <v>0.9954040239471708</v>
+      </c>
+      <c r="S35">
+        <v>0.9954040239471708</v>
+      </c>
+      <c r="T35">
+        <v>0.9985134493293749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000004167461921</v>
+      </c>
+      <c r="D36">
+        <v>0.9999953535447956</v>
+      </c>
+      <c r="E36">
+        <v>1.000003381626416</v>
+      </c>
+      <c r="F36">
+        <v>1.000002179726511</v>
+      </c>
+      <c r="G36">
+        <v>0.9999908403100667</v>
+      </c>
+      <c r="H36">
+        <v>1.000001680990999</v>
+      </c>
+      <c r="I36">
+        <v>1.000003381626416</v>
+      </c>
+      <c r="J36">
+        <v>0.9999908403100667</v>
+      </c>
+      <c r="K36">
+        <v>1.000003381626416</v>
+      </c>
+      <c r="L36">
+        <v>1.000001680990999</v>
+      </c>
+      <c r="M36">
+        <v>0.999996260650533</v>
+      </c>
+      <c r="N36">
+        <v>0.999996260650533</v>
+      </c>
+      <c r="O36">
+        <v>0.9999959582819539</v>
+      </c>
+      <c r="P36">
+        <v>0.9999986343091608</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999986343091608</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998211384746</v>
+      </c>
+      <c r="S36">
+        <v>0.9999998211384746</v>
+      </c>
+      <c r="T36">
+        <v>0.9999996006101183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000122421706267</v>
+      </c>
+      <c r="D37">
+        <v>0.9999026844663654</v>
+      </c>
+      <c r="E37">
+        <v>1.00004036131163</v>
+      </c>
+      <c r="F37">
+        <v>1.000044029391928</v>
+      </c>
+      <c r="G37">
+        <v>0.9998252440252546</v>
+      </c>
+      <c r="H37">
+        <v>1.000045535591986</v>
+      </c>
+      <c r="I37">
+        <v>1.00004036131163</v>
+      </c>
+      <c r="J37">
+        <v>0.9998252440252546</v>
+      </c>
+      <c r="K37">
+        <v>1.00004036131163</v>
+      </c>
+      <c r="L37">
+        <v>1.000045535591986</v>
+      </c>
+      <c r="M37">
+        <v>0.9999353898086204</v>
+      </c>
+      <c r="N37">
+        <v>0.9999353898086204</v>
+      </c>
+      <c r="O37">
+        <v>0.9999244880278688</v>
+      </c>
+      <c r="P37">
+        <v>0.9999703803096237</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999703803096237</v>
+      </c>
+      <c r="R37">
+        <v>0.9999878755601254</v>
+      </c>
+      <c r="S37">
+        <v>0.9999878755601254</v>
+      </c>
+      <c r="T37">
+        <v>0.9999967127489052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000405160329111</v>
+      </c>
+      <c r="D38">
+        <v>0.9996565834865917</v>
+      </c>
+      <c r="E38">
+        <v>1.000165724070764</v>
+      </c>
+      <c r="F38">
+        <v>1.000156604955105</v>
+      </c>
+      <c r="G38">
+        <v>0.99937019755737</v>
+      </c>
+      <c r="H38">
+        <v>1.000152851995962</v>
+      </c>
+      <c r="I38">
+        <v>1.000165724070764</v>
+      </c>
+      <c r="J38">
+        <v>0.99937019755737</v>
+      </c>
+      <c r="K38">
+        <v>1.000165724070764</v>
+      </c>
+      <c r="L38">
+        <v>1.000152851995962</v>
+      </c>
+      <c r="M38">
+        <v>0.999761524776666</v>
+      </c>
+      <c r="N38">
+        <v>0.999761524776666</v>
+      </c>
+      <c r="O38">
+        <v>0.9997265443466413</v>
+      </c>
+      <c r="P38">
+        <v>0.9998962578746987</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998962578746989</v>
+      </c>
+      <c r="R38">
+        <v>0.9999636244237153</v>
+      </c>
+      <c r="S38">
+        <v>0.9999636244237153</v>
+      </c>
+      <c r="T38">
+        <v>0.9999845203991508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000932003203902</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9991949558366336</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000403928062963</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000367941524129</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9985149054341836</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000353129626377</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000403928062963</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9985149054341836</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000403928062963</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000353129626377</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9994340175302805</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9994340175302805</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9993543302990648</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997573210411747</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9997573210411747</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999189727966217</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999189727966217</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999611439480313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00434741482876</v>
+      </c>
+      <c r="D40">
+        <v>0.9963343513138099</v>
+      </c>
+      <c r="E40">
+        <v>1.001749302883786</v>
+      </c>
+      <c r="F40">
+        <v>1.001670605027955</v>
+      </c>
+      <c r="G40">
+        <v>0.9932884434558865</v>
+      </c>
+      <c r="H40">
+        <v>1.001638212689208</v>
+      </c>
+      <c r="I40">
+        <v>1.001749302883786</v>
+      </c>
+      <c r="J40">
+        <v>0.9932884434558865</v>
+      </c>
+      <c r="K40">
+        <v>1.001749302883786</v>
+      </c>
+      <c r="L40">
+        <v>1.001638212689208</v>
+      </c>
+      <c r="M40">
+        <v>0.9974633280725471</v>
+      </c>
+      <c r="N40">
+        <v>0.9974633280725471</v>
+      </c>
+      <c r="O40">
+        <v>0.9970870024863014</v>
+      </c>
+      <c r="P40">
+        <v>0.9988919863429601</v>
+      </c>
+      <c r="Q40">
+        <v>0.9988919863429601</v>
+      </c>
+      <c r="R40">
+        <v>0.9996063154781665</v>
+      </c>
+      <c r="S40">
+        <v>0.9996063154781665</v>
+      </c>
+      <c r="T40">
+        <v>0.9998380550332343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9974178943862791</v>
+      </c>
+      <c r="D41">
+        <v>1.002150199835657</v>
+      </c>
+      <c r="E41">
+        <v>0.9990016449958316</v>
+      </c>
+      <c r="F41">
+        <v>0.9990215252159274</v>
+      </c>
+      <c r="G41">
+        <v>1.003921264281383</v>
+      </c>
+      <c r="H41">
+        <v>0.9990297018180627</v>
+      </c>
+      <c r="I41">
+        <v>0.9990016449958316</v>
+      </c>
+      <c r="J41">
+        <v>1.003921264281383</v>
+      </c>
+      <c r="K41">
+        <v>0.9990016449958316</v>
+      </c>
+      <c r="L41">
+        <v>0.9990297018180627</v>
+      </c>
+      <c r="M41">
+        <v>1.001475483049723</v>
+      </c>
+      <c r="N41">
+        <v>1.001475483049723</v>
+      </c>
+      <c r="O41">
+        <v>1.001700388645034</v>
+      </c>
+      <c r="P41">
+        <v>1.000650870365092</v>
+      </c>
+      <c r="Q41">
+        <v>1.000650870365092</v>
+      </c>
+      <c r="R41">
+        <v>1.000238564022777</v>
+      </c>
+      <c r="S41">
+        <v>1.000238564022777</v>
+      </c>
+      <c r="T41">
+        <v>1.000090371755524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.017166103293109</v>
+      </c>
+      <c r="D42">
+        <v>0.985751546273139</v>
+      </c>
+      <c r="E42">
+        <v>1.006567440464002</v>
+      </c>
+      <c r="F42">
+        <v>1.006481381756943</v>
+      </c>
+      <c r="G42">
+        <v>0.9740426030304873</v>
+      </c>
+      <c r="H42">
+        <v>1.006445958858244</v>
+      </c>
+      <c r="I42">
+        <v>1.006567440464002</v>
+      </c>
+      <c r="J42">
+        <v>0.9740426030304873</v>
+      </c>
+      <c r="K42">
+        <v>1.006567440464002</v>
+      </c>
+      <c r="L42">
+        <v>1.006445958858244</v>
+      </c>
+      <c r="M42">
+        <v>0.9902442809443655</v>
+      </c>
+      <c r="N42">
+        <v>0.9902442809443655</v>
+      </c>
+      <c r="O42">
+        <v>0.9887467027206233</v>
+      </c>
+      <c r="P42">
+        <v>0.9956853341175775</v>
+      </c>
+      <c r="Q42">
+        <v>0.9956853341175774</v>
+      </c>
+      <c r="R42">
+        <v>0.9984058607041835</v>
+      </c>
+      <c r="S42">
+        <v>0.9984058607041835</v>
+      </c>
+      <c r="T42">
+        <v>0.9994091722793207</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000519045043411</v>
+        <v>1.000248450067376</v>
       </c>
       <c r="D3">
-        <v>0.9979662883032179</v>
+        <v>0.999797608910109</v>
       </c>
       <c r="E3">
-        <v>1.000502526645789</v>
+        <v>1.000089282667622</v>
       </c>
       <c r="F3">
-        <v>1.000519045043411</v>
+        <v>1.00009185291688</v>
       </c>
       <c r="G3">
-        <v>1.001336934405141</v>
+        <v>0.9996335449720898</v>
       </c>
       <c r="H3">
-        <v>0.9988852791390335</v>
+        <v>1.000092906445428</v>
       </c>
       <c r="I3">
-        <v>1.000507344963198</v>
+        <v>1.000089282667622</v>
       </c>
       <c r="J3">
-        <v>0.9979662883032179</v>
+        <v>0.9996335449720898</v>
       </c>
       <c r="K3">
-        <v>1.000519045043411</v>
+        <v>1.000089282667622</v>
       </c>
       <c r="L3">
-        <v>1.000502526645789</v>
+        <v>1.000092906445428</v>
       </c>
       <c r="M3">
-        <v>0.9992344074745036</v>
+        <v>0.9998632257087587</v>
       </c>
       <c r="N3">
-        <v>0.9992344074745036</v>
+        <v>0.9998632257087587</v>
       </c>
       <c r="O3">
-        <v>0.9991180313626803</v>
+        <v>0.9998413534425422</v>
       </c>
       <c r="P3">
-        <v>0.9996626199974727</v>
+        <v>0.9999385780283797</v>
       </c>
       <c r="Q3">
-        <v>0.9996626199974727</v>
+        <v>0.9999385780283797</v>
       </c>
       <c r="R3">
-        <v>0.9998767262589572</v>
+        <v>0.9999762541881903</v>
       </c>
       <c r="S3">
-        <v>0.9998767262589572</v>
+        <v>0.9999762541881903</v>
       </c>
       <c r="T3">
-        <v>0.9999529030832984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999922743299173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001001467538597</v>
+        <v>1.00434741482876</v>
       </c>
       <c r="D4">
-        <v>0.9960742767011835</v>
+        <v>0.9963343513138099</v>
       </c>
       <c r="E4">
-        <v>1.000970296424139</v>
+        <v>1.001749302883786</v>
       </c>
       <c r="F4">
-        <v>1.001001467538597</v>
+        <v>1.001670605027955</v>
       </c>
       <c r="G4">
-        <v>1.002581527818124</v>
+        <v>0.9932884434558865</v>
       </c>
       <c r="H4">
-        <v>0.9978480652736793</v>
+        <v>1.001638212689208</v>
       </c>
       <c r="I4">
-        <v>1.00097938565425</v>
+        <v>1.001749302883786</v>
       </c>
       <c r="J4">
-        <v>0.9960742767011835</v>
+        <v>0.9932884434558865</v>
       </c>
       <c r="K4">
-        <v>1.001001467538597</v>
+        <v>1.001749302883786</v>
       </c>
       <c r="L4">
-        <v>1.000970296424139</v>
+        <v>1.001638212689208</v>
       </c>
       <c r="M4">
-        <v>0.9985222865626615</v>
+        <v>0.9974633280725471</v>
       </c>
       <c r="N4">
-        <v>0.9985222865626615</v>
+        <v>0.9974633280725471</v>
       </c>
       <c r="O4">
-        <v>0.9982975461330007</v>
+        <v>0.9970870024863014</v>
       </c>
       <c r="P4">
-        <v>0.9993486802213066</v>
+        <v>0.9988919863429601</v>
       </c>
       <c r="Q4">
-        <v>0.9993486802213066</v>
+        <v>0.9988919863429601</v>
       </c>
       <c r="R4">
-        <v>0.9997618770506291</v>
+        <v>0.9996063154781665</v>
       </c>
       <c r="S4">
-        <v>0.9997618770506291</v>
+        <v>0.9996063154781665</v>
       </c>
       <c r="T4">
-        <v>0.9999091699016621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9998380550332343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001918111794264</v>
+        <v>1.014260901224783</v>
       </c>
       <c r="D5">
-        <v>0.9924774987940739</v>
+        <v>0.9883449372262256</v>
       </c>
       <c r="E5">
-        <v>1.001859800985176</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="F5">
-        <v>1.001918111794264</v>
+        <v>1.005291622146976</v>
       </c>
       <c r="G5">
-        <v>1.004948358787556</v>
+        <v>0.978874146433716</v>
       </c>
       <c r="H5">
-        <v>0.9958761212419471</v>
+        <v>1.005336770626802</v>
       </c>
       <c r="I5">
-        <v>1.001876797027174</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="J5">
-        <v>0.9924774987940739</v>
+        <v>0.978874146433716</v>
       </c>
       <c r="K5">
-        <v>1.001918111794264</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="L5">
-        <v>1.001859800985176</v>
+        <v>1.005336770626802</v>
       </c>
       <c r="M5">
-        <v>0.9971686498896248</v>
+        <v>0.9921054585302589</v>
       </c>
       <c r="N5">
-        <v>0.9971686498896248</v>
+        <v>0.9921054585302589</v>
       </c>
       <c r="O5">
-        <v>0.9967378070070656</v>
+        <v>0.9908519514289145</v>
       </c>
       <c r="P5">
-        <v>0.998751803857838</v>
+        <v>0.9964642743251689</v>
       </c>
       <c r="Q5">
-        <v>0.998751803857838</v>
+        <v>0.9964642743251689</v>
       </c>
       <c r="R5">
-        <v>0.9995433808419446</v>
+        <v>0.9986436822226239</v>
       </c>
       <c r="S5">
-        <v>0.9995433808419446</v>
+        <v>0.9986436822226239</v>
       </c>
       <c r="T5">
-        <v>0.9998261147716986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9995483805955819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002812487454898</v>
+        <v>1.048028837802456</v>
       </c>
       <c r="D6">
-        <v>0.9889673632249761</v>
+        <v>0.9609071189023591</v>
       </c>
       <c r="E6">
-        <v>1.002727975626326</v>
+        <v>1.017211286608418</v>
       </c>
       <c r="F6">
-        <v>1.002812487454898</v>
+        <v>1.017739930091168</v>
       </c>
       <c r="G6">
-        <v>1.007258501653394</v>
+        <v>0.9292360345761207</v>
       </c>
       <c r="H6">
-        <v>0.9939516053757598</v>
+        <v>1.017957487995727</v>
       </c>
       <c r="I6">
-        <v>1.002752606311215</v>
+        <v>1.017211286608418</v>
       </c>
       <c r="J6">
-        <v>0.9889673632249761</v>
+        <v>0.9292360345761207</v>
       </c>
       <c r="K6">
-        <v>1.002812487454898</v>
+        <v>1.017211286608418</v>
       </c>
       <c r="L6">
-        <v>1.002727975626326</v>
+        <v>1.017957487995727</v>
       </c>
       <c r="M6">
-        <v>0.9958476694256513</v>
+        <v>0.973596761285924</v>
       </c>
       <c r="N6">
-        <v>0.9958476694256513</v>
+        <v>0.973596761285924</v>
       </c>
       <c r="O6">
-        <v>0.9952156480756874</v>
+        <v>0.9693668804914024</v>
       </c>
       <c r="P6">
-        <v>0.9981692754354002</v>
+        <v>0.9881349363934219</v>
       </c>
       <c r="Q6">
-        <v>0.9981692754354002</v>
+        <v>0.9881349363934219</v>
       </c>
       <c r="R6">
-        <v>0.9993300784402748</v>
+        <v>0.9954040239471708</v>
       </c>
       <c r="S6">
-        <v>0.9993300784402748</v>
+        <v>0.9954040239471708</v>
       </c>
       <c r="T6">
-        <v>0.9997450899410949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9985134493293749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000035008960775</v>
+        <v>1.001460883193413</v>
       </c>
       <c r="D7">
-        <v>0.9998562386246513</v>
+        <v>0.9987829459745278</v>
       </c>
       <c r="E7">
-        <v>1.000036455292438</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="F7">
-        <v>1.000035008960775</v>
+        <v>1.000553864583935</v>
       </c>
       <c r="G7">
-        <v>1.000097498838639</v>
+        <v>0.9977801839470487</v>
       </c>
       <c r="H7">
-        <v>0.9999205942349659</v>
+        <v>1.000549015190798</v>
       </c>
       <c r="I7">
-        <v>1.000036036597626</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="J7">
-        <v>0.9998562386246513</v>
+        <v>0.9977801839470487</v>
       </c>
       <c r="K7">
-        <v>1.000035008960775</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="L7">
-        <v>1.000036455292438</v>
+        <v>1.000549015190798</v>
       </c>
       <c r="M7">
-        <v>0.9999463469585448</v>
+        <v>0.9991645995689236</v>
       </c>
       <c r="N7">
-        <v>0.9999463469585448</v>
+        <v>0.9991645995689236</v>
       </c>
       <c r="O7">
-        <v>0.9999377627173519</v>
+        <v>0.999037381704125</v>
       </c>
       <c r="P7">
-        <v>0.9999759009592882</v>
+        <v>0.9996316124564345</v>
       </c>
       <c r="Q7">
-        <v>0.9999759009592882</v>
+        <v>0.9996316124564345</v>
       </c>
       <c r="R7">
-        <v>0.99999067795966</v>
+        <v>0.99986511890019</v>
       </c>
       <c r="S7">
-        <v>0.99999067795966</v>
+        <v>0.99986511890019</v>
       </c>
       <c r="T7">
-        <v>0.9999969720915159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999487551868634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000089282667622</v>
+        <v>1.000122421706267</v>
       </c>
       <c r="D8">
-        <v>0.9996335449720898</v>
+        <v>0.9999026844663654</v>
       </c>
       <c r="E8">
-        <v>1.000092906445428</v>
+        <v>1.00004036131163</v>
       </c>
       <c r="F8">
-        <v>1.000089282667622</v>
+        <v>1.000044029391928</v>
       </c>
       <c r="G8">
-        <v>1.000248450067376</v>
+        <v>0.9998252440252546</v>
       </c>
       <c r="H8">
-        <v>0.9997976089101087</v>
+        <v>1.000045535591986</v>
       </c>
       <c r="I8">
-        <v>1.00009185291688</v>
+        <v>1.00004036131163</v>
       </c>
       <c r="J8">
-        <v>0.9996335449720898</v>
+        <v>0.9998252440252546</v>
       </c>
       <c r="K8">
-        <v>1.000089282667622</v>
+        <v>1.00004036131163</v>
       </c>
       <c r="L8">
-        <v>1.000092906445428</v>
+        <v>1.000045535591986</v>
       </c>
       <c r="M8">
-        <v>0.9998632257087587</v>
+        <v>0.9999353898086204</v>
       </c>
       <c r="N8">
-        <v>0.9998632257087587</v>
+        <v>0.9999353898086204</v>
       </c>
       <c r="O8">
-        <v>0.999841353442542</v>
+        <v>0.9999244880278688</v>
       </c>
       <c r="P8">
-        <v>0.9999385780283797</v>
+        <v>0.9999703803096237</v>
       </c>
       <c r="Q8">
-        <v>0.9999385780283797</v>
+        <v>0.9999703803096237</v>
       </c>
       <c r="R8">
-        <v>0.9999762541881903</v>
+        <v>0.9999878755601254</v>
       </c>
       <c r="S8">
-        <v>0.9999762541881903</v>
+        <v>0.9999878755601254</v>
       </c>
       <c r="T8">
-        <v>0.9999922743299172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999967127489052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000125150448637</v>
+        <v>1.002581527818124</v>
       </c>
       <c r="D9">
-        <v>0.9994868218626139</v>
+        <v>0.9978480652736793</v>
       </c>
       <c r="E9">
-        <v>1.000130038346019</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="F9">
-        <v>1.000125150448637</v>
+        <v>1.00097938565425</v>
       </c>
       <c r="G9">
-        <v>1.00034770920793</v>
+        <v>0.9960742767011835</v>
       </c>
       <c r="H9">
-        <v>0.9997166190084714</v>
+        <v>1.000970296424139</v>
       </c>
       <c r="I9">
-        <v>1.000128616174315</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="J9">
-        <v>0.9994868218626139</v>
+        <v>0.9960742767011835</v>
       </c>
       <c r="K9">
-        <v>1.000125150448637</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="L9">
-        <v>1.000130038346019</v>
+        <v>1.000970296424139</v>
       </c>
       <c r="M9">
-        <v>0.9998084301043162</v>
+        <v>0.9985222865626615</v>
       </c>
       <c r="N9">
-        <v>0.9998084301043162</v>
+        <v>0.9985222865626615</v>
       </c>
       <c r="O9">
-        <v>0.9997778264057012</v>
+        <v>0.9982975461330007</v>
       </c>
       <c r="P9">
-        <v>0.9999140035524231</v>
+        <v>0.9993486802213066</v>
       </c>
       <c r="Q9">
-        <v>0.9999140035524231</v>
+        <v>0.9993486802213066</v>
       </c>
       <c r="R9">
-        <v>0.9999667902764765</v>
+        <v>0.9997618770506291</v>
       </c>
       <c r="S9">
-        <v>0.9999667902764765</v>
+        <v>0.9997618770506291</v>
       </c>
       <c r="T9">
-        <v>0.9999891591746644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999091699016621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000269835891088</v>
+        <v>1.048753775722664</v>
       </c>
       <c r="D10">
-        <v>0.9988934760484469</v>
+        <v>0.9603255909897953</v>
       </c>
       <c r="E10">
-        <v>1.000280401739096</v>
+        <v>1.017458220011402</v>
       </c>
       <c r="F10">
-        <v>1.000269835891088</v>
+        <v>1.018003339677607</v>
       </c>
       <c r="G10">
-        <v>1.00074976549797</v>
+        <v>0.9281884986228039</v>
       </c>
       <c r="H10">
-        <v>0.9993889652686383</v>
+        <v>1.018227678764699</v>
       </c>
       <c r="I10">
-        <v>1.000277326105611</v>
+        <v>1.017458220011402</v>
       </c>
       <c r="J10">
-        <v>0.9988934760484469</v>
+        <v>0.9281884986228039</v>
       </c>
       <c r="K10">
-        <v>1.000269835891088</v>
+        <v>1.017458220011402</v>
       </c>
       <c r="L10">
-        <v>1.000280401739096</v>
+        <v>1.018227678764699</v>
       </c>
       <c r="M10">
-        <v>0.9995869388937713</v>
+        <v>0.9732080886937513</v>
       </c>
       <c r="N10">
-        <v>0.9995869388937713</v>
+        <v>0.9732080886937513</v>
       </c>
       <c r="O10">
-        <v>0.9995209476853937</v>
+        <v>0.9689139227924327</v>
       </c>
       <c r="P10">
-        <v>0.9998145712262102</v>
+        <v>0.9879581324663015</v>
       </c>
       <c r="Q10">
-        <v>0.9998145712262102</v>
+        <v>0.9879581324663015</v>
       </c>
       <c r="R10">
-        <v>0.9999283873924297</v>
+        <v>0.9953331543525767</v>
       </c>
       <c r="S10">
-        <v>0.9999283873924297</v>
+        <v>0.9953331543525767</v>
       </c>
       <c r="T10">
-        <v>0.9999766284251418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9984928506314952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000447904345155</v>
+        <v>1.004121746080861</v>
       </c>
       <c r="D11">
-        <v>0.9981643413154863</v>
+        <v>0.9965451446109521</v>
       </c>
       <c r="E11">
-        <v>1.00046502704117</v>
+        <v>1.001627604005186</v>
       </c>
       <c r="F11">
-        <v>1.000447904345155</v>
+        <v>1.001573419343117</v>
       </c>
       <c r="G11">
-        <v>1.001243342275259</v>
+        <v>0.9936862626508077</v>
       </c>
       <c r="H11">
-        <v>0.9989864230237224</v>
+        <v>1.001551114738082</v>
       </c>
       <c r="I11">
-        <v>1.000460038588926</v>
+        <v>1.001627604005186</v>
       </c>
       <c r="J11">
-        <v>0.9981643413154863</v>
+        <v>0.9936862626508077</v>
       </c>
       <c r="K11">
-        <v>1.000447904345155</v>
+        <v>1.001627604005186</v>
       </c>
       <c r="L11">
-        <v>1.00046502704117</v>
+        <v>1.001551114738082</v>
       </c>
       <c r="M11">
-        <v>0.999314684178328</v>
+        <v>0.9976186886944447</v>
       </c>
       <c r="N11">
-        <v>0.999314684178328</v>
+        <v>0.9976186886944447</v>
       </c>
       <c r="O11">
-        <v>0.9992052637934595</v>
+        <v>0.9972608406666138</v>
       </c>
       <c r="P11">
-        <v>0.999692424233937</v>
+        <v>0.9989549937980251</v>
       </c>
       <c r="Q11">
-        <v>0.999692424233937</v>
+        <v>0.998954993798025</v>
       </c>
       <c r="R11">
-        <v>0.9998812942617414</v>
+        <v>0.9996231463498152</v>
       </c>
       <c r="S11">
-        <v>0.9998812942617414</v>
+        <v>0.9996231463498152</v>
       </c>
       <c r="T11">
-        <v>0.9999611794316196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.999850881904834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.996153154398043</v>
+        <v>1.014635376810525</v>
       </c>
       <c r="D12">
-        <v>1.016193888586086</v>
+        <v>0.9880943623578948</v>
       </c>
       <c r="E12">
-        <v>0.995839515633447</v>
+        <v>1.005234431284211</v>
       </c>
       <c r="F12">
-        <v>0.996153154398043</v>
+        <v>1.005402270168422</v>
       </c>
       <c r="G12">
-        <v>0.9888456298233126</v>
+        <v>0.9784530808526318</v>
       </c>
       <c r="H12">
-        <v>1.008979219520659</v>
+        <v>1.005471339473684</v>
       </c>
       <c r="I12">
-        <v>0.9959309568614352</v>
+        <v>1.005234431284211</v>
       </c>
       <c r="J12">
-        <v>1.016193888586086</v>
+        <v>0.9784530808526318</v>
       </c>
       <c r="K12">
-        <v>0.996153154398043</v>
+        <v>1.005234431284211</v>
       </c>
       <c r="L12">
-        <v>0.995839515633447</v>
+        <v>1.005471339473684</v>
       </c>
       <c r="M12">
-        <v>1.006016702109766</v>
+        <v>0.9919622101631578</v>
       </c>
       <c r="N12">
-        <v>1.006016702109766</v>
+        <v>0.9919622101631578</v>
       </c>
       <c r="O12">
-        <v>1.007004207913397</v>
+        <v>0.9906729275614033</v>
       </c>
       <c r="P12">
-        <v>1.002728852872525</v>
+        <v>0.9963862838701756</v>
       </c>
       <c r="Q12">
-        <v>1.002728852872525</v>
+        <v>0.9963862838701756</v>
       </c>
       <c r="R12">
-        <v>1.001084928253905</v>
+        <v>0.9985983207236845</v>
       </c>
       <c r="S12">
-        <v>1.001084928253905</v>
+        <v>0.9985983207236845</v>
       </c>
       <c r="T12">
-        <v>1.000323727470497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9995484768245615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9988435240341823</v>
+        <v>0.9905104659202076</v>
       </c>
       <c r="D13">
-        <v>1.004281537449279</v>
+        <v>1.007805984251172</v>
       </c>
       <c r="E13">
-        <v>0.9989774478140858</v>
+        <v>0.9964758800235556</v>
       </c>
       <c r="F13">
-        <v>0.9988435240341823</v>
+        <v>0.9964530973710748</v>
       </c>
       <c r="G13">
-        <v>0.9972987008390213</v>
+        <v>1.014179175022297</v>
       </c>
       <c r="H13">
-        <v>1.002323846036043</v>
+        <v>0.9964437224966527</v>
       </c>
       <c r="I13">
-        <v>0.998938403644375</v>
+        <v>0.9964758800235556</v>
       </c>
       <c r="J13">
-        <v>1.004281537449279</v>
+        <v>1.014179175022297</v>
       </c>
       <c r="K13">
-        <v>0.9988435240341823</v>
+        <v>0.9964758800235556</v>
       </c>
       <c r="L13">
-        <v>0.9989774478140858</v>
+        <v>0.9964437224966527</v>
       </c>
       <c r="M13">
-        <v>1.001629492631682</v>
+        <v>1.005311448759475</v>
       </c>
       <c r="N13">
-        <v>1.001629492631682</v>
+        <v>1.005311448759475</v>
       </c>
       <c r="O13">
-        <v>1.001860943766469</v>
+        <v>1.00614296059004</v>
       </c>
       <c r="P13">
-        <v>1.000700836432516</v>
+        <v>1.002366259180835</v>
       </c>
       <c r="Q13">
-        <v>1.000700836432516</v>
+        <v>1.002366259180835</v>
       </c>
       <c r="R13">
-        <v>1.000236508332933</v>
+        <v>1.000893664391515</v>
       </c>
       <c r="S13">
-        <v>1.000236508332933</v>
+        <v>1.000893664391515</v>
       </c>
       <c r="T13">
-        <v>1.000110576636164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00031138751416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9961659865889145</v>
+        <v>1.084257500000001</v>
       </c>
       <c r="D14">
-        <v>1.016185282777185</v>
+        <v>0.9314548999999992</v>
       </c>
       <c r="E14">
-        <v>0.9958357270684534</v>
+        <v>1.0301398</v>
       </c>
       <c r="F14">
-        <v>0.9961659865889145</v>
+        <v>1.031103000000001</v>
       </c>
       <c r="G14">
-        <v>0.9888323744684009</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="H14">
-        <v>1.00897834241764</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="I14">
-        <v>0.9959320169001692</v>
+        <v>1.0301398</v>
       </c>
       <c r="J14">
-        <v>1.016185282777185</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="K14">
-        <v>0.9961659865889145</v>
+        <v>1.0301398</v>
       </c>
       <c r="L14">
-        <v>0.9958357270684534</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="M14">
-        <v>1.006010504922819</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="N14">
-        <v>1.006010504922819</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="O14">
-        <v>1.006999784087759</v>
+        <v>0.9462996533333339</v>
       </c>
       <c r="P14">
-        <v>1.002728998811518</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="Q14">
-        <v>1.002728998811518</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="R14">
-        <v>1.001088245755867</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="S14">
-        <v>1.001088245755867</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="T14">
-        <v>1.000321621703461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9973998766666675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.998838330620227</v>
+        <v>1.0315004</v>
       </c>
       <c r="D15">
-        <v>1.004284544148603</v>
+        <v>0.97429176</v>
       </c>
       <c r="E15">
-        <v>0.9989791665705556</v>
+        <v>1.0113915</v>
       </c>
       <c r="F15">
-        <v>0.998838330620227</v>
+        <v>1.01167</v>
       </c>
       <c r="G15">
-        <v>0.99730459539724</v>
+        <v>0.95342312</v>
       </c>
       <c r="H15">
-        <v>1.002323897636629</v>
+        <v>1.0117846</v>
       </c>
       <c r="I15">
-        <v>0.9989381065659431</v>
+        <v>1.0113915</v>
       </c>
       <c r="J15">
-        <v>1.004284544148603</v>
+        <v>0.95342312</v>
       </c>
       <c r="K15">
-        <v>0.998838330620227</v>
+        <v>1.0113915</v>
       </c>
       <c r="L15">
-        <v>0.9989791665705556</v>
+        <v>1.0117846</v>
       </c>
       <c r="M15">
-        <v>1.001631855359579</v>
+        <v>0.98260386</v>
       </c>
       <c r="N15">
-        <v>1.001631855359579</v>
+        <v>0.98260386</v>
       </c>
       <c r="O15">
-        <v>1.001862536118596</v>
+        <v>0.97983316</v>
       </c>
       <c r="P15">
-        <v>1.000700680446462</v>
+        <v>0.9921997399999999</v>
       </c>
       <c r="Q15">
-        <v>1.000700680446462</v>
+        <v>0.9921997399999999</v>
       </c>
       <c r="R15">
-        <v>1.000235092989903</v>
+        <v>0.99699768</v>
       </c>
       <c r="S15">
-        <v>1.000235092989903</v>
+        <v>0.99699768</v>
       </c>
       <c r="T15">
-        <v>1.000111440156533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.99901023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000003381626416</v>
+        <v>1.0301398</v>
       </c>
       <c r="D16">
-        <v>0.9999908403100667</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="E16">
-        <v>1.000001680990999</v>
+        <v>1.012634</v>
       </c>
       <c r="F16">
-        <v>1.000003381626416</v>
+        <v>1.0117535</v>
       </c>
       <c r="G16">
-        <v>1.000004167461921</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H16">
-        <v>0.9999953535447956</v>
+        <v>1.0113912</v>
       </c>
       <c r="I16">
-        <v>1.000002179726511</v>
+        <v>1.012634</v>
       </c>
       <c r="J16">
-        <v>0.9999908403100667</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K16">
-        <v>1.000003381626416</v>
+        <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>1.000001680990999</v>
+        <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>0.999996260650533</v>
+        <v>0.9820255</v>
       </c>
       <c r="N16">
-        <v>0.999996260650533</v>
+        <v>0.9820255</v>
       </c>
       <c r="O16">
-        <v>0.9999959582819539</v>
+        <v>0.97943384</v>
       </c>
       <c r="P16">
-        <v>0.9999986343091608</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999986343091608</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R16">
-        <v>0.9999998211384746</v>
+        <v>0.99732975</v>
       </c>
       <c r="S16">
-        <v>0.9999998211384746</v>
+        <v>0.99732975</v>
       </c>
       <c r="T16">
-        <v>0.9999996006101183</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00004036131163</v>
+        <v>0.9760500600000001</v>
       </c>
       <c r="D17">
-        <v>0.9998252440252546</v>
+        <v>1.0198259</v>
       </c>
       <c r="E17">
-        <v>1.000045535591986</v>
+        <v>0.99091759</v>
       </c>
       <c r="F17">
-        <v>1.00004036131163</v>
+        <v>0.99098449</v>
       </c>
       <c r="G17">
-        <v>1.000122421706267</v>
+        <v>1.0360868</v>
       </c>
       <c r="H17">
-        <v>0.9999026844663654</v>
+        <v>0.9910120299999999</v>
       </c>
       <c r="I17">
-        <v>1.000044029391928</v>
+        <v>0.99091759</v>
       </c>
       <c r="J17">
-        <v>0.9998252440252546</v>
+        <v>1.0360868</v>
       </c>
       <c r="K17">
-        <v>1.00004036131163</v>
+        <v>0.99091759</v>
       </c>
       <c r="L17">
-        <v>1.000045535591986</v>
+        <v>0.9910120299999999</v>
       </c>
       <c r="M17">
-        <v>0.9999353898086204</v>
+        <v>1.013549415</v>
       </c>
       <c r="N17">
-        <v>0.9999353898086204</v>
+        <v>1.013549415</v>
       </c>
       <c r="O17">
-        <v>0.9999244880278688</v>
+        <v>1.015641576666667</v>
       </c>
       <c r="P17">
-        <v>0.9999703803096237</v>
+        <v>1.006005473333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999703803096237</v>
+        <v>1.006005473333333</v>
       </c>
       <c r="R17">
-        <v>0.9999878755601254</v>
+        <v>1.0022335025</v>
       </c>
       <c r="S17">
-        <v>0.9999878755601254</v>
+        <v>1.0022335025</v>
       </c>
       <c r="T17">
-        <v>0.9999967127489052</v>
+        <v>1.000812811666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000165724070764</v>
+        <v>1.030828920547945</v>
       </c>
       <c r="D18">
-        <v>0.99937019755737</v>
+        <v>0.9742718257534243</v>
       </c>
       <c r="E18">
-        <v>1.000152851995962</v>
+        <v>1.012004083561644</v>
       </c>
       <c r="F18">
-        <v>1.000165724070764</v>
+        <v>1.011710994520548</v>
       </c>
       <c r="G18">
-        <v>1.000405160329111</v>
+        <v>0.9530474284931509</v>
       </c>
       <c r="H18">
-        <v>0.9996565834865918</v>
+        <v>1.01159038630137</v>
       </c>
       <c r="I18">
-        <v>1.000156604955105</v>
+        <v>1.012004083561644</v>
       </c>
       <c r="J18">
-        <v>0.99937019755737</v>
+        <v>0.9530474284931509</v>
       </c>
       <c r="K18">
-        <v>1.000165724070764</v>
+        <v>1.012004083561644</v>
       </c>
       <c r="L18">
-        <v>1.000152851995962</v>
+        <v>1.01159038630137</v>
       </c>
       <c r="M18">
-        <v>0.999761524776666</v>
+        <v>0.9823189073972604</v>
       </c>
       <c r="N18">
-        <v>0.999761524776666</v>
+        <v>0.9823189073972604</v>
       </c>
       <c r="O18">
-        <v>0.9997265443466413</v>
+        <v>0.979636546849315</v>
       </c>
       <c r="P18">
-        <v>0.9998962578746987</v>
+        <v>0.9922139661187216</v>
       </c>
       <c r="Q18">
-        <v>0.9998962578746989</v>
+        <v>0.9922139661187216</v>
       </c>
       <c r="R18">
-        <v>0.9999636244237153</v>
+        <v>0.9971614954794523</v>
       </c>
       <c r="S18">
-        <v>0.9999636244237153</v>
+        <v>0.9971614954794523</v>
       </c>
       <c r="T18">
-        <v>0.9999845203991505</v>
+        <v>0.9989089398630138</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000403928062963</v>
+        <v>1.013988627368421</v>
       </c>
       <c r="D19">
-        <v>0.9985149054341836</v>
+        <v>0.9883787936842104</v>
       </c>
       <c r="E19">
-        <v>1.000353129626377</v>
+        <v>1.005367114736842</v>
       </c>
       <c r="F19">
-        <v>1.000403928062963</v>
+        <v>1.005286852105263</v>
       </c>
       <c r="G19">
-        <v>1.000932003203902</v>
+        <v>0.9788228542105264</v>
       </c>
       <c r="H19">
-        <v>0.9991949558366336</v>
+        <v>1.005253827894737</v>
       </c>
       <c r="I19">
-        <v>1.000367941524129</v>
+        <v>1.005367114736842</v>
       </c>
       <c r="J19">
-        <v>0.9985149054341836</v>
+        <v>0.9788228542105264</v>
       </c>
       <c r="K19">
-        <v>1.000403928062963</v>
+        <v>1.005367114736842</v>
       </c>
       <c r="L19">
-        <v>1.000353129626377</v>
+        <v>1.005253827894737</v>
       </c>
       <c r="M19">
-        <v>0.9994340175302805</v>
+        <v>0.9920383410526317</v>
       </c>
       <c r="N19">
-        <v>0.9994340175302805</v>
+        <v>0.9920383410526317</v>
       </c>
       <c r="O19">
-        <v>0.9993543302990648</v>
+        <v>0.9908184919298245</v>
       </c>
       <c r="P19">
-        <v>0.9997573210411747</v>
+        <v>0.9964812656140353</v>
       </c>
       <c r="Q19">
-        <v>0.9997573210411747</v>
+        <v>0.9964812656140353</v>
       </c>
       <c r="R19">
-        <v>0.9999189727966217</v>
+        <v>0.9987027278947369</v>
       </c>
       <c r="S19">
-        <v>0.9999189727966217</v>
+        <v>0.9987027278947369</v>
       </c>
       <c r="T19">
-        <v>0.9999611439480313</v>
+        <v>0.999516345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.014426614736842</v>
+      </c>
+      <c r="D20">
+        <v>0.9883926205263159</v>
+      </c>
+      <c r="E20">
+        <v>1.004966334210526</v>
+      </c>
+      <c r="F20">
+        <v>1.005259682105263</v>
+      </c>
+      <c r="G20">
+        <v>0.9790699068421053</v>
+      </c>
+      <c r="H20">
+        <v>1.005380401578948</v>
+      </c>
+      <c r="I20">
+        <v>1.004966334210526</v>
+      </c>
+      <c r="J20">
+        <v>0.9790699068421053</v>
+      </c>
+      <c r="K20">
+        <v>1.004966334210526</v>
+      </c>
+      <c r="L20">
+        <v>1.005380401578948</v>
+      </c>
+      <c r="M20">
+        <v>0.9922251542105265</v>
+      </c>
+      <c r="N20">
+        <v>0.9922251542105265</v>
+      </c>
+      <c r="O20">
+        <v>0.9909476429824563</v>
+      </c>
+      <c r="P20">
+        <v>0.9964722142105265</v>
+      </c>
+      <c r="Q20">
+        <v>0.9964722142105265</v>
+      </c>
+      <c r="R20">
+        <v>0.9985957442105264</v>
+      </c>
+      <c r="S20">
+        <v>0.9985957442105264</v>
+      </c>
+      <c r="T20">
+        <v>0.9995825933333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9888323744684009</v>
+      </c>
+      <c r="D21">
+        <v>1.00897834241764</v>
+      </c>
+      <c r="E21">
+        <v>0.9961659865889145</v>
+      </c>
+      <c r="F21">
+        <v>0.9959320169001692</v>
+      </c>
+      <c r="G21">
+        <v>1.016185282777185</v>
+      </c>
+      <c r="H21">
+        <v>0.9958357270684536</v>
+      </c>
+      <c r="I21">
+        <v>0.9961659865889145</v>
+      </c>
+      <c r="J21">
+        <v>1.016185282777185</v>
+      </c>
+      <c r="K21">
+        <v>0.9961659865889145</v>
+      </c>
+      <c r="L21">
+        <v>0.9958357270684536</v>
+      </c>
+      <c r="M21">
+        <v>1.006010504922819</v>
+      </c>
+      <c r="N21">
+        <v>1.006010504922819</v>
+      </c>
+      <c r="O21">
+        <v>1.006999784087759</v>
+      </c>
+      <c r="P21">
+        <v>1.002728998811518</v>
+      </c>
+      <c r="Q21">
+        <v>1.002728998811518</v>
+      </c>
+      <c r="R21">
+        <v>1.001088245755867</v>
+      </c>
+      <c r="S21">
+        <v>1.001088245755867</v>
+      </c>
+      <c r="T21">
+        <v>1.000321621703461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.99730459539724</v>
+      </c>
+      <c r="D22">
+        <v>1.002323897636629</v>
+      </c>
+      <c r="E22">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="F22">
+        <v>0.9989381065659431</v>
+      </c>
+      <c r="G22">
+        <v>1.004284544148603</v>
+      </c>
+      <c r="H22">
+        <v>0.9989791665705556</v>
+      </c>
+      <c r="I22">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="J22">
+        <v>1.004284544148603</v>
+      </c>
+      <c r="K22">
+        <v>0.9988383306202269</v>
+      </c>
+      <c r="L22">
+        <v>0.9989791665705556</v>
+      </c>
+      <c r="M22">
+        <v>1.001631855359579</v>
+      </c>
+      <c r="N22">
+        <v>1.001631855359579</v>
+      </c>
+      <c r="O22">
+        <v>1.001862536118596</v>
+      </c>
+      <c r="P22">
+        <v>1.000700680446462</v>
+      </c>
+      <c r="Q22">
+        <v>1.000700680446462</v>
+      </c>
+      <c r="R22">
+        <v>1.000235092989903</v>
+      </c>
+      <c r="S22">
+        <v>1.000235092989903</v>
+      </c>
+      <c r="T22">
+        <v>1.000111440156533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9888456298233126</v>
+      </c>
+      <c r="D23">
+        <v>1.008979219520659</v>
+      </c>
+      <c r="E23">
+        <v>0.996153154398043</v>
+      </c>
+      <c r="F23">
+        <v>0.9959309568614352</v>
+      </c>
+      <c r="G23">
+        <v>1.016193888586086</v>
+      </c>
+      <c r="H23">
+        <v>0.995839515633447</v>
+      </c>
+      <c r="I23">
+        <v>0.996153154398043</v>
+      </c>
+      <c r="J23">
+        <v>1.016193888586086</v>
+      </c>
+      <c r="K23">
+        <v>0.996153154398043</v>
+      </c>
+      <c r="L23">
+        <v>0.995839515633447</v>
+      </c>
+      <c r="M23">
+        <v>1.006016702109766</v>
+      </c>
+      <c r="N23">
+        <v>1.006016702109766</v>
+      </c>
+      <c r="O23">
+        <v>1.007004207913397</v>
+      </c>
+      <c r="P23">
+        <v>1.002728852872525</v>
+      </c>
+      <c r="Q23">
+        <v>1.002728852872525</v>
+      </c>
+      <c r="R23">
+        <v>1.001084928253905</v>
+      </c>
+      <c r="S23">
+        <v>1.001084928253905</v>
+      </c>
+      <c r="T23">
+        <v>1.000323727470497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9972987008390212</v>
+      </c>
+      <c r="D24">
+        <v>1.002323846036044</v>
+      </c>
+      <c r="E24">
+        <v>0.9988435240341823</v>
+      </c>
+      <c r="F24">
+        <v>0.998938403644375</v>
+      </c>
+      <c r="G24">
+        <v>1.004281537449279</v>
+      </c>
+      <c r="H24">
+        <v>0.9989774478140858</v>
+      </c>
+      <c r="I24">
+        <v>0.9988435240341823</v>
+      </c>
+      <c r="J24">
+        <v>1.004281537449279</v>
+      </c>
+      <c r="K24">
+        <v>0.9988435240341823</v>
+      </c>
+      <c r="L24">
+        <v>0.9989774478140858</v>
+      </c>
+      <c r="M24">
+        <v>1.001629492631682</v>
+      </c>
+      <c r="N24">
+        <v>1.001629492631682</v>
+      </c>
+      <c r="O24">
+        <v>1.001860943766469</v>
+      </c>
+      <c r="P24">
+        <v>1.000700836432516</v>
+      </c>
+      <c r="Q24">
+        <v>1.000700836432516</v>
+      </c>
+      <c r="R24">
+        <v>1.000236508332932</v>
+      </c>
+      <c r="S24">
+        <v>1.000236508332932</v>
+      </c>
+      <c r="T24">
+        <v>1.000110576636164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9888590492768324</v>
+      </c>
+      <c r="D25">
+        <v>1.00897997056303</v>
+      </c>
+      <c r="E25">
+        <v>0.9961403935434965</v>
+      </c>
+      <c r="F25">
+        <v>0.9959299642086804</v>
+      </c>
+      <c r="G25">
+        <v>1.016202236447099</v>
+      </c>
+      <c r="H25">
+        <v>0.9958433541799609</v>
+      </c>
+      <c r="I25">
+        <v>0.9961403935434965</v>
+      </c>
+      <c r="J25">
+        <v>1.016202236447099</v>
+      </c>
+      <c r="K25">
+        <v>0.9961403935434965</v>
+      </c>
+      <c r="L25">
+        <v>0.9958433541799609</v>
+      </c>
+      <c r="M25">
+        <v>1.00602279531353</v>
+      </c>
+      <c r="N25">
+        <v>1.00602279531353</v>
+      </c>
+      <c r="O25">
+        <v>1.007008520396697</v>
+      </c>
+      <c r="P25">
+        <v>1.002728661390185</v>
+      </c>
+      <c r="Q25">
+        <v>1.002728661390186</v>
+      </c>
+      <c r="R25">
+        <v>1.001081594428513</v>
+      </c>
+      <c r="S25">
+        <v>1.001081594428513</v>
+      </c>
+      <c r="T25">
+        <v>1.000325828036517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9972928526903513</v>
+      </c>
+      <c r="D26">
+        <v>1.002323749074494</v>
+      </c>
+      <c r="E26">
+        <v>0.99884873132929</v>
+      </c>
+      <c r="F26">
+        <v>0.9989387138255711</v>
+      </c>
+      <c r="G26">
+        <v>1.004278458247074</v>
+      </c>
+      <c r="H26">
+        <v>0.9989757454755455</v>
+      </c>
+      <c r="I26">
+        <v>0.99884873132929</v>
+      </c>
+      <c r="J26">
+        <v>1.004278458247074</v>
+      </c>
+      <c r="K26">
+        <v>0.99884873132929</v>
+      </c>
+      <c r="L26">
+        <v>0.9989757454755455</v>
+      </c>
+      <c r="M26">
+        <v>1.00162710186131</v>
+      </c>
+      <c r="N26">
+        <v>1.00162710186131</v>
+      </c>
+      <c r="O26">
+        <v>1.001859317599038</v>
+      </c>
+      <c r="P26">
+        <v>1.000700978350636</v>
+      </c>
+      <c r="Q26">
+        <v>1.000700978350636</v>
+      </c>
+      <c r="R26">
+        <v>1.0002379165953</v>
+      </c>
+      <c r="S26">
+        <v>1.0002379165953</v>
+      </c>
+      <c r="T26">
+        <v>1.000109708440387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.0049286431089</v>
+      </c>
+      <c r="D27">
+        <v>0.9959118157579536</v>
+      </c>
+      <c r="E27">
+        <v>1.001881450652574</v>
+      </c>
+      <c r="F27">
+        <v>1.001859489790283</v>
+      </c>
+      <c r="G27">
+        <v>0.9925539189243152</v>
+      </c>
+      <c r="H27">
+        <v>1.001850456768758</v>
+      </c>
+      <c r="I27">
+        <v>1.001881450652574</v>
+      </c>
+      <c r="J27">
+        <v>0.9925539189243152</v>
+      </c>
+      <c r="K27">
+        <v>1.001881450652574</v>
+      </c>
+      <c r="L27">
+        <v>1.001850456768758</v>
+      </c>
+      <c r="M27">
+        <v>0.9972021878465367</v>
+      </c>
+      <c r="N27">
+        <v>0.9972021878465367</v>
+      </c>
+      <c r="O27">
+        <v>0.996772063817009</v>
+      </c>
+      <c r="P27">
+        <v>0.9987619421152157</v>
+      </c>
+      <c r="Q27">
+        <v>0.9987619421152156</v>
+      </c>
+      <c r="R27">
+        <v>0.9995418192495551</v>
+      </c>
+      <c r="S27">
+        <v>0.9995418192495551</v>
+      </c>
+      <c r="T27">
+        <v>0.9998309625004639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9990092905082657</v>
+      </c>
+      <c r="D28">
+        <v>1.00070491312134</v>
+      </c>
+      <c r="E28">
+        <v>0.9997977969556445</v>
+      </c>
+      <c r="F28">
+        <v>0.9996858288555105</v>
+      </c>
+      <c r="G28">
+        <v>1.001215165832634</v>
+      </c>
+      <c r="H28">
+        <v>0.9996397701802237</v>
+      </c>
+      <c r="I28">
+        <v>0.9997977969556445</v>
+      </c>
+      <c r="J28">
+        <v>1.001215165832634</v>
+      </c>
+      <c r="K28">
+        <v>0.9997977969556445</v>
+      </c>
+      <c r="L28">
+        <v>0.9996397701802237</v>
+      </c>
+      <c r="M28">
+        <v>1.000427468006429</v>
+      </c>
+      <c r="N28">
+        <v>1.000427468006429</v>
+      </c>
+      <c r="O28">
+        <v>1.000519949711399</v>
+      </c>
+      <c r="P28">
+        <v>1.000217577656167</v>
+      </c>
+      <c r="Q28">
+        <v>1.000217577656167</v>
+      </c>
+      <c r="R28">
+        <v>1.000112632481037</v>
+      </c>
+      <c r="S28">
+        <v>1.000112632481037</v>
+      </c>
+      <c r="T28">
+        <v>1.00000879424227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9838213077783419</v>
+      </c>
+      <c r="D29">
+        <v>1.013181705608488</v>
+      </c>
+      <c r="E29">
+        <v>0.9941825897913593</v>
+      </c>
+      <c r="F29">
+        <v>0.9940175257118296</v>
+      </c>
+      <c r="G29">
+        <v>1.023868681282269</v>
+      </c>
+      <c r="H29">
+        <v>0.9939496282594635</v>
+      </c>
+      <c r="I29">
+        <v>0.9941825897913593</v>
+      </c>
+      <c r="J29">
+        <v>1.023868681282269</v>
+      </c>
+      <c r="K29">
+        <v>0.9941825897913593</v>
+      </c>
+      <c r="L29">
+        <v>0.9939496282594635</v>
+      </c>
+      <c r="M29">
+        <v>1.008909154770866</v>
+      </c>
+      <c r="N29">
+        <v>1.008909154770866</v>
+      </c>
+      <c r="O29">
+        <v>1.010333338383407</v>
+      </c>
+      <c r="P29">
+        <v>1.004000299777697</v>
+      </c>
+      <c r="Q29">
+        <v>1.004000299777697</v>
+      </c>
+      <c r="R29">
+        <v>1.001545872281113</v>
+      </c>
+      <c r="S29">
+        <v>1.001545872281113</v>
+      </c>
+      <c r="T29">
+        <v>1.000503573071959</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00434741482876</v>
+        <v>1.011964140332335</v>
       </c>
       <c r="D4">
-        <v>0.9963343513138099</v>
+        <v>0.9902244328948805</v>
       </c>
       <c r="E4">
-        <v>1.001749302883786</v>
+        <v>1.00434370967539</v>
       </c>
       <c r="F4">
-        <v>1.001670605027955</v>
+        <v>1.004438160217789</v>
       </c>
       <c r="G4">
-        <v>0.9932884434558865</v>
+        <v>0.9822823437521215</v>
       </c>
       <c r="H4">
-        <v>1.001638212689208</v>
+        <v>1.004477025573838</v>
       </c>
       <c r="I4">
-        <v>1.001749302883786</v>
+        <v>1.00434370967539</v>
       </c>
       <c r="J4">
-        <v>0.9932884434558865</v>
+        <v>0.9822823437521215</v>
       </c>
       <c r="K4">
-        <v>1.001749302883786</v>
+        <v>1.00434370967539</v>
       </c>
       <c r="L4">
-        <v>1.001638212689208</v>
+        <v>1.004477025573838</v>
       </c>
       <c r="M4">
-        <v>0.9974633280725471</v>
+        <v>0.9933796846629798</v>
       </c>
       <c r="N4">
-        <v>0.9974633280725471</v>
+        <v>0.9933796846629798</v>
       </c>
       <c r="O4">
-        <v>0.9970870024863014</v>
+        <v>0.9923279340736134</v>
       </c>
       <c r="P4">
-        <v>0.9988919863429601</v>
+        <v>0.9970343596671167</v>
       </c>
       <c r="Q4">
-        <v>0.9988919863429601</v>
+        <v>0.9970343596671167</v>
       </c>
       <c r="R4">
-        <v>0.9996063154781665</v>
+        <v>0.9988616971691852</v>
       </c>
       <c r="S4">
-        <v>0.9996063154781665</v>
+        <v>0.9988616971691852</v>
       </c>
       <c r="T4">
-        <v>0.9998380550332343</v>
+        <v>0.9996216354077258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.014260901224783</v>
+        <v>1.008455316609172</v>
       </c>
       <c r="D5">
-        <v>0.9883449372262256</v>
+        <v>0.9932676715771742</v>
       </c>
       <c r="E5">
-        <v>1.005181905914989</v>
+        <v>1.00280431016725</v>
       </c>
       <c r="F5">
-        <v>1.005291622146976</v>
+        <v>1.003046604259772</v>
       </c>
       <c r="G5">
-        <v>0.978874146433716</v>
+        <v>0.9879033132086472</v>
       </c>
       <c r="H5">
-        <v>1.005336770626802</v>
+        <v>1.003146314203467</v>
       </c>
       <c r="I5">
-        <v>1.005181905914989</v>
+        <v>1.00280431016725</v>
       </c>
       <c r="J5">
-        <v>0.978874146433716</v>
+        <v>0.9879033132086472</v>
       </c>
       <c r="K5">
-        <v>1.005181905914989</v>
+        <v>1.00280431016725</v>
       </c>
       <c r="L5">
-        <v>1.005336770626802</v>
+        <v>1.003146314203467</v>
       </c>
       <c r="M5">
-        <v>0.9921054585302589</v>
+        <v>0.9955248137060572</v>
       </c>
       <c r="N5">
-        <v>0.9921054585302589</v>
+        <v>0.9955248137060572</v>
       </c>
       <c r="O5">
-        <v>0.9908519514289145</v>
+        <v>0.9947724329964295</v>
       </c>
       <c r="P5">
-        <v>0.9964642743251689</v>
+        <v>0.9979513125264549</v>
       </c>
       <c r="Q5">
-        <v>0.9964642743251689</v>
+        <v>0.9979513125264549</v>
       </c>
       <c r="R5">
-        <v>0.9986436822226239</v>
+        <v>0.9991645619366536</v>
       </c>
       <c r="S5">
-        <v>0.9986436822226239</v>
+        <v>0.9991645619366536</v>
       </c>
       <c r="T5">
-        <v>0.9995483805955819</v>
+        <v>0.9997705883375803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.048028837802456</v>
+        <v>1.00434741482876</v>
       </c>
       <c r="D6">
-        <v>0.9609071189023591</v>
+        <v>0.9963343513138099</v>
       </c>
       <c r="E6">
-        <v>1.017211286608418</v>
+        <v>1.001749302883786</v>
       </c>
       <c r="F6">
-        <v>1.017739930091168</v>
+        <v>1.001670605027955</v>
       </c>
       <c r="G6">
-        <v>0.9292360345761207</v>
+        <v>0.9932884434558865</v>
       </c>
       <c r="H6">
-        <v>1.017957487995727</v>
+        <v>1.001638212689208</v>
       </c>
       <c r="I6">
-        <v>1.017211286608418</v>
+        <v>1.001749302883786</v>
       </c>
       <c r="J6">
-        <v>0.9292360345761207</v>
+        <v>0.9932884434558865</v>
       </c>
       <c r="K6">
-        <v>1.017211286608418</v>
+        <v>1.001749302883786</v>
       </c>
       <c r="L6">
-        <v>1.017957487995727</v>
+        <v>1.001638212689208</v>
       </c>
       <c r="M6">
-        <v>0.973596761285924</v>
+        <v>0.9974633280725471</v>
       </c>
       <c r="N6">
-        <v>0.973596761285924</v>
+        <v>0.9974633280725471</v>
       </c>
       <c r="O6">
-        <v>0.9693668804914024</v>
+        <v>0.9970870024863014</v>
       </c>
       <c r="P6">
-        <v>0.9881349363934219</v>
+        <v>0.9988919863429601</v>
       </c>
       <c r="Q6">
-        <v>0.9881349363934219</v>
+        <v>0.9988919863429601</v>
       </c>
       <c r="R6">
-        <v>0.9954040239471708</v>
+        <v>0.9996063154781665</v>
       </c>
       <c r="S6">
-        <v>0.9954040239471708</v>
+        <v>0.9996063154781665</v>
       </c>
       <c r="T6">
-        <v>0.9985134493293749</v>
+        <v>0.9998380550332343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001460883193413</v>
+        <v>1.014260901224783</v>
       </c>
       <c r="D7">
-        <v>0.9987829459745278</v>
+        <v>0.9883449372262256</v>
       </c>
       <c r="E7">
-        <v>1.000565638231457</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="F7">
-        <v>1.000553864583935</v>
+        <v>1.005291622146976</v>
       </c>
       <c r="G7">
-        <v>0.9977801839470487</v>
+        <v>0.978874146433716</v>
       </c>
       <c r="H7">
-        <v>1.000549015190798</v>
+        <v>1.005336770626802</v>
       </c>
       <c r="I7">
-        <v>1.000565638231457</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="J7">
-        <v>0.9977801839470487</v>
+        <v>0.978874146433716</v>
       </c>
       <c r="K7">
-        <v>1.000565638231457</v>
+        <v>1.005181905914989</v>
       </c>
       <c r="L7">
-        <v>1.000549015190798</v>
+        <v>1.005336770626802</v>
       </c>
       <c r="M7">
-        <v>0.9991645995689236</v>
+        <v>0.9921054585302589</v>
       </c>
       <c r="N7">
-        <v>0.9991645995689236</v>
+        <v>0.9921054585302589</v>
       </c>
       <c r="O7">
-        <v>0.999037381704125</v>
+        <v>0.9908519514289145</v>
       </c>
       <c r="P7">
-        <v>0.9996316124564345</v>
+        <v>0.9964642743251689</v>
       </c>
       <c r="Q7">
-        <v>0.9996316124564345</v>
+        <v>0.9964642743251689</v>
       </c>
       <c r="R7">
-        <v>0.99986511890019</v>
+        <v>0.9986436822226239</v>
       </c>
       <c r="S7">
-        <v>0.99986511890019</v>
+        <v>0.9986436822226239</v>
       </c>
       <c r="T7">
-        <v>0.9999487551868634</v>
+        <v>0.9995483805955819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000122421706267</v>
+        <v>1.048028837802456</v>
       </c>
       <c r="D8">
-        <v>0.9999026844663654</v>
+        <v>0.9609071189023591</v>
       </c>
       <c r="E8">
-        <v>1.00004036131163</v>
+        <v>1.017211286608418</v>
       </c>
       <c r="F8">
-        <v>1.000044029391928</v>
+        <v>1.017739930091168</v>
       </c>
       <c r="G8">
-        <v>0.9998252440252546</v>
+        <v>0.9292360345761207</v>
       </c>
       <c r="H8">
-        <v>1.000045535591986</v>
+        <v>1.017957487995727</v>
       </c>
       <c r="I8">
-        <v>1.00004036131163</v>
+        <v>1.017211286608418</v>
       </c>
       <c r="J8">
-        <v>0.9998252440252546</v>
+        <v>0.9292360345761207</v>
       </c>
       <c r="K8">
-        <v>1.00004036131163</v>
+        <v>1.017211286608418</v>
       </c>
       <c r="L8">
-        <v>1.000045535591986</v>
+        <v>1.017957487995727</v>
       </c>
       <c r="M8">
-        <v>0.9999353898086204</v>
+        <v>0.973596761285924</v>
       </c>
       <c r="N8">
-        <v>0.9999353898086204</v>
+        <v>0.973596761285924</v>
       </c>
       <c r="O8">
-        <v>0.9999244880278688</v>
+        <v>0.9693668804914024</v>
       </c>
       <c r="P8">
-        <v>0.9999703803096237</v>
+        <v>0.9881349363934219</v>
       </c>
       <c r="Q8">
-        <v>0.9999703803096237</v>
+        <v>0.9881349363934219</v>
       </c>
       <c r="R8">
-        <v>0.9999878755601254</v>
+        <v>0.9954040239471708</v>
       </c>
       <c r="S8">
-        <v>0.9999878755601254</v>
+        <v>0.9954040239471708</v>
       </c>
       <c r="T8">
-        <v>0.9999967127489052</v>
+        <v>0.9985134493293749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002581527818124</v>
+        <v>1.001460883193413</v>
       </c>
       <c r="D9">
-        <v>0.9978480652736793</v>
+        <v>0.9987829459745278</v>
       </c>
       <c r="E9">
-        <v>1.001001467538597</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="F9">
-        <v>1.00097938565425</v>
+        <v>1.000553864583935</v>
       </c>
       <c r="G9">
-        <v>0.9960742767011835</v>
+        <v>0.9977801839470487</v>
       </c>
       <c r="H9">
-        <v>1.000970296424139</v>
+        <v>1.000549015190798</v>
       </c>
       <c r="I9">
-        <v>1.001001467538597</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="J9">
-        <v>0.9960742767011835</v>
+        <v>0.9977801839470487</v>
       </c>
       <c r="K9">
-        <v>1.001001467538597</v>
+        <v>1.000565638231457</v>
       </c>
       <c r="L9">
-        <v>1.000970296424139</v>
+        <v>1.000549015190798</v>
       </c>
       <c r="M9">
-        <v>0.9985222865626615</v>
+        <v>0.9991645995689236</v>
       </c>
       <c r="N9">
-        <v>0.9985222865626615</v>
+        <v>0.9991645995689236</v>
       </c>
       <c r="O9">
-        <v>0.9982975461330007</v>
+        <v>0.999037381704125</v>
       </c>
       <c r="P9">
-        <v>0.9993486802213066</v>
+        <v>0.9996316124564345</v>
       </c>
       <c r="Q9">
-        <v>0.9993486802213066</v>
+        <v>0.9996316124564345</v>
       </c>
       <c r="R9">
-        <v>0.9997618770506291</v>
+        <v>0.99986511890019</v>
       </c>
       <c r="S9">
-        <v>0.9997618770506291</v>
+        <v>0.99986511890019</v>
       </c>
       <c r="T9">
-        <v>0.9999091699016621</v>
+        <v>0.9999487551868634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.048753775722664</v>
+        <v>1.000122421706267</v>
       </c>
       <c r="D10">
-        <v>0.9603255909897953</v>
+        <v>0.9999026844663654</v>
       </c>
       <c r="E10">
-        <v>1.017458220011402</v>
+        <v>1.00004036131163</v>
       </c>
       <c r="F10">
-        <v>1.018003339677607</v>
+        <v>1.000044029391928</v>
       </c>
       <c r="G10">
-        <v>0.9281884986228039</v>
+        <v>0.9998252440252546</v>
       </c>
       <c r="H10">
-        <v>1.018227678764699</v>
+        <v>1.000045535591986</v>
       </c>
       <c r="I10">
-        <v>1.017458220011402</v>
+        <v>1.00004036131163</v>
       </c>
       <c r="J10">
-        <v>0.9281884986228039</v>
+        <v>0.9998252440252546</v>
       </c>
       <c r="K10">
-        <v>1.017458220011402</v>
+        <v>1.00004036131163</v>
       </c>
       <c r="L10">
-        <v>1.018227678764699</v>
+        <v>1.000045535591986</v>
       </c>
       <c r="M10">
-        <v>0.9732080886937513</v>
+        <v>0.9999353898086204</v>
       </c>
       <c r="N10">
-        <v>0.9732080886937513</v>
+        <v>0.9999353898086204</v>
       </c>
       <c r="O10">
-        <v>0.9689139227924327</v>
+        <v>0.9999244880278688</v>
       </c>
       <c r="P10">
-        <v>0.9879581324663015</v>
+        <v>0.9999703803096237</v>
       </c>
       <c r="Q10">
-        <v>0.9879581324663015</v>
+        <v>0.9999703803096237</v>
       </c>
       <c r="R10">
-        <v>0.9953331543525767</v>
+        <v>0.9999878755601254</v>
       </c>
       <c r="S10">
-        <v>0.9953331543525767</v>
+        <v>0.9999878755601254</v>
       </c>
       <c r="T10">
-        <v>0.9984928506314952</v>
+        <v>0.9999967127489052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004121746080861</v>
+        <v>1.002581527818124</v>
       </c>
       <c r="D11">
-        <v>0.9965451446109521</v>
+        <v>0.9978480652736793</v>
       </c>
       <c r="E11">
-        <v>1.001627604005186</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="F11">
-        <v>1.001573419343117</v>
+        <v>1.00097938565425</v>
       </c>
       <c r="G11">
-        <v>0.9936862626508077</v>
+        <v>0.9960742767011835</v>
       </c>
       <c r="H11">
-        <v>1.001551114738082</v>
+        <v>1.000970296424139</v>
       </c>
       <c r="I11">
-        <v>1.001627604005186</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="J11">
-        <v>0.9936862626508077</v>
+        <v>0.9960742767011835</v>
       </c>
       <c r="K11">
-        <v>1.001627604005186</v>
+        <v>1.001001467538597</v>
       </c>
       <c r="L11">
-        <v>1.001551114738082</v>
+        <v>1.000970296424139</v>
       </c>
       <c r="M11">
-        <v>0.9976186886944447</v>
+        <v>0.9985222865626615</v>
       </c>
       <c r="N11">
-        <v>0.9976186886944447</v>
+        <v>0.9985222865626615</v>
       </c>
       <c r="O11">
-        <v>0.9972608406666138</v>
+        <v>0.9982975461330007</v>
       </c>
       <c r="P11">
-        <v>0.9989549937980251</v>
+        <v>0.9993486802213066</v>
       </c>
       <c r="Q11">
-        <v>0.998954993798025</v>
+        <v>0.9993486802213066</v>
       </c>
       <c r="R11">
-        <v>0.9996231463498152</v>
+        <v>0.9997618770506291</v>
       </c>
       <c r="S11">
-        <v>0.9996231463498152</v>
+        <v>0.9997618770506291</v>
       </c>
       <c r="T11">
-        <v>0.999850881904834</v>
+        <v>0.9999091699016621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.014635376810525</v>
+        <v>1.048753775722664</v>
       </c>
       <c r="D12">
-        <v>0.9880943623578948</v>
+        <v>0.9603255909897953</v>
       </c>
       <c r="E12">
-        <v>1.005234431284211</v>
+        <v>1.017458220011402</v>
       </c>
       <c r="F12">
-        <v>1.005402270168422</v>
+        <v>1.018003339677607</v>
       </c>
       <c r="G12">
-        <v>0.9784530808526318</v>
+        <v>0.9281884986228039</v>
       </c>
       <c r="H12">
-        <v>1.005471339473684</v>
+        <v>1.018227678764699</v>
       </c>
       <c r="I12">
-        <v>1.005234431284211</v>
+        <v>1.017458220011402</v>
       </c>
       <c r="J12">
-        <v>0.9784530808526318</v>
+        <v>0.9281884986228039</v>
       </c>
       <c r="K12">
-        <v>1.005234431284211</v>
+        <v>1.017458220011402</v>
       </c>
       <c r="L12">
-        <v>1.005471339473684</v>
+        <v>1.018227678764699</v>
       </c>
       <c r="M12">
-        <v>0.9919622101631578</v>
+        <v>0.9732080886937513</v>
       </c>
       <c r="N12">
-        <v>0.9919622101631578</v>
+        <v>0.9732080886937513</v>
       </c>
       <c r="O12">
-        <v>0.9906729275614033</v>
+        <v>0.9689139227924327</v>
       </c>
       <c r="P12">
-        <v>0.9963862838701756</v>
+        <v>0.9879581324663015</v>
       </c>
       <c r="Q12">
-        <v>0.9963862838701756</v>
+        <v>0.9879581324663015</v>
       </c>
       <c r="R12">
-        <v>0.9985983207236845</v>
+        <v>0.9953331543525767</v>
       </c>
       <c r="S12">
-        <v>0.9985983207236845</v>
+        <v>0.9953331543525767</v>
       </c>
       <c r="T12">
-        <v>0.9995484768245615</v>
+        <v>0.9984928506314952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9905104659202076</v>
+        <v>1.004121746080861</v>
       </c>
       <c r="D13">
-        <v>1.007805984251172</v>
+        <v>0.9965451446109521</v>
       </c>
       <c r="E13">
-        <v>0.9964758800235556</v>
+        <v>1.001627604005186</v>
       </c>
       <c r="F13">
-        <v>0.9964530973710748</v>
+        <v>1.001573419343117</v>
       </c>
       <c r="G13">
-        <v>1.014179175022297</v>
+        <v>0.9936862626508077</v>
       </c>
       <c r="H13">
-        <v>0.9964437224966527</v>
+        <v>1.001551114738082</v>
       </c>
       <c r="I13">
-        <v>0.9964758800235556</v>
+        <v>1.001627604005186</v>
       </c>
       <c r="J13">
-        <v>1.014179175022297</v>
+        <v>0.9936862626508077</v>
       </c>
       <c r="K13">
-        <v>0.9964758800235556</v>
+        <v>1.001627604005186</v>
       </c>
       <c r="L13">
-        <v>0.9964437224966527</v>
+        <v>1.001551114738082</v>
       </c>
       <c r="M13">
-        <v>1.005311448759475</v>
+        <v>0.9976186886944447</v>
       </c>
       <c r="N13">
-        <v>1.005311448759475</v>
+        <v>0.9976186886944447</v>
       </c>
       <c r="O13">
-        <v>1.00614296059004</v>
+        <v>0.9972608406666138</v>
       </c>
       <c r="P13">
-        <v>1.002366259180835</v>
+        <v>0.9989549937980251</v>
       </c>
       <c r="Q13">
-        <v>1.002366259180835</v>
+        <v>0.998954993798025</v>
       </c>
       <c r="R13">
-        <v>1.000893664391515</v>
+        <v>0.9996231463498152</v>
       </c>
       <c r="S13">
-        <v>1.000893664391515</v>
+        <v>0.9996231463498152</v>
       </c>
       <c r="T13">
-        <v>1.00031138751416</v>
+        <v>0.999850881904834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.084257500000001</v>
+        <v>1.014635376810525</v>
       </c>
       <c r="D14">
-        <v>0.9314548999999992</v>
+        <v>0.9880943623578948</v>
       </c>
       <c r="E14">
-        <v>1.0301398</v>
+        <v>1.005234431284211</v>
       </c>
       <c r="F14">
-        <v>1.031103000000001</v>
+        <v>1.005402270168422</v>
       </c>
       <c r="G14">
-        <v>0.8759446600000014</v>
+        <v>0.9784530808526318</v>
       </c>
       <c r="H14">
-        <v>1.031499400000001</v>
+        <v>1.005471339473684</v>
       </c>
       <c r="I14">
-        <v>1.0301398</v>
+        <v>1.005234431284211</v>
       </c>
       <c r="J14">
-        <v>0.8759446600000014</v>
+        <v>0.9784530808526318</v>
       </c>
       <c r="K14">
-        <v>1.0301398</v>
+        <v>1.005234431284211</v>
       </c>
       <c r="L14">
-        <v>1.031499400000001</v>
+        <v>1.005471339473684</v>
       </c>
       <c r="M14">
-        <v>0.9537220300000011</v>
+        <v>0.9919622101631578</v>
       </c>
       <c r="N14">
-        <v>0.9537220300000011</v>
+        <v>0.9919622101631578</v>
       </c>
       <c r="O14">
-        <v>0.9462996533333339</v>
+        <v>0.9906729275614033</v>
       </c>
       <c r="P14">
-        <v>0.9791946200000009</v>
+        <v>0.9963862838701756</v>
       </c>
       <c r="Q14">
-        <v>0.9791946200000009</v>
+        <v>0.9963862838701756</v>
       </c>
       <c r="R14">
-        <v>0.9919309150000009</v>
+        <v>0.9985983207236845</v>
       </c>
       <c r="S14">
-        <v>0.9919309150000009</v>
+        <v>0.9985983207236845</v>
       </c>
       <c r="T14">
-        <v>0.9973998766666675</v>
+        <v>0.9995484768245615</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0315004</v>
+        <v>0.9905104659202076</v>
       </c>
       <c r="D15">
-        <v>0.97429176</v>
+        <v>1.007805984251172</v>
       </c>
       <c r="E15">
-        <v>1.0113915</v>
+        <v>0.9964758800235556</v>
       </c>
       <c r="F15">
-        <v>1.01167</v>
+        <v>0.9964530973710748</v>
       </c>
       <c r="G15">
-        <v>0.95342312</v>
+        <v>1.014179175022297</v>
       </c>
       <c r="H15">
-        <v>1.0117846</v>
+        <v>0.9964437224966527</v>
       </c>
       <c r="I15">
-        <v>1.0113915</v>
+        <v>0.9964758800235556</v>
       </c>
       <c r="J15">
-        <v>0.95342312</v>
+        <v>1.014179175022297</v>
       </c>
       <c r="K15">
-        <v>1.0113915</v>
+        <v>0.9964758800235556</v>
       </c>
       <c r="L15">
-        <v>1.0117846</v>
+        <v>0.9964437224966527</v>
       </c>
       <c r="M15">
-        <v>0.98260386</v>
+        <v>1.005311448759475</v>
       </c>
       <c r="N15">
-        <v>0.98260386</v>
+        <v>1.005311448759475</v>
       </c>
       <c r="O15">
-        <v>0.97983316</v>
+        <v>1.00614296059004</v>
       </c>
       <c r="P15">
-        <v>0.9921997399999999</v>
+        <v>1.002366259180835</v>
       </c>
       <c r="Q15">
-        <v>0.9921997399999999</v>
+        <v>1.002366259180835</v>
       </c>
       <c r="R15">
-        <v>0.99699768</v>
+        <v>1.000893664391515</v>
       </c>
       <c r="S15">
-        <v>0.99699768</v>
+        <v>1.000893664391515</v>
       </c>
       <c r="T15">
-        <v>0.99901023</v>
+        <v>1.00031138751416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>1.084257500000001</v>
+      </c>
+      <c r="D16">
+        <v>0.9314548999999992</v>
+      </c>
+      <c r="E16">
         <v>1.0301398</v>
       </c>
-      <c r="D16">
-        <v>0.9742505199999999</v>
-      </c>
-      <c r="E16">
-        <v>1.012634</v>
-      </c>
       <c r="F16">
-        <v>1.0117535</v>
+        <v>1.031103000000001</v>
       </c>
       <c r="G16">
-        <v>0.9526597999999999</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="H16">
-        <v>1.0113912</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="I16">
-        <v>1.012634</v>
+        <v>1.0301398</v>
       </c>
       <c r="J16">
-        <v>0.9526597999999999</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="K16">
-        <v>1.012634</v>
+        <v>1.0301398</v>
       </c>
       <c r="L16">
-        <v>1.0113912</v>
+        <v>1.031499400000001</v>
       </c>
       <c r="M16">
-        <v>0.9820255</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="N16">
-        <v>0.9820255</v>
+        <v>0.9537220300000011</v>
       </c>
       <c r="O16">
-        <v>0.97943384</v>
+        <v>0.9462996533333339</v>
       </c>
       <c r="P16">
-        <v>0.9922283333333333</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="Q16">
-        <v>0.9922283333333333</v>
+        <v>0.9791946200000009</v>
       </c>
       <c r="R16">
-        <v>0.99732975</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="S16">
-        <v>0.99732975</v>
+        <v>0.9919309150000009</v>
       </c>
       <c r="T16">
-        <v>0.9988048033333333</v>
+        <v>0.9973998766666675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9760500600000001</v>
+        <v>1.0315004</v>
       </c>
       <c r="D17">
-        <v>1.0198259</v>
+        <v>0.97429176</v>
       </c>
       <c r="E17">
-        <v>0.99091759</v>
+        <v>1.0113915</v>
       </c>
       <c r="F17">
-        <v>0.99098449</v>
+        <v>1.01167</v>
       </c>
       <c r="G17">
-        <v>1.0360868</v>
+        <v>0.95342312</v>
       </c>
       <c r="H17">
-        <v>0.9910120299999999</v>
+        <v>1.0117846</v>
       </c>
       <c r="I17">
-        <v>0.99091759</v>
+        <v>1.0113915</v>
       </c>
       <c r="J17">
-        <v>1.0360868</v>
+        <v>0.95342312</v>
       </c>
       <c r="K17">
-        <v>0.99091759</v>
+        <v>1.0113915</v>
       </c>
       <c r="L17">
-        <v>0.9910120299999999</v>
+        <v>1.0117846</v>
       </c>
       <c r="M17">
-        <v>1.013549415</v>
+        <v>0.98260386</v>
       </c>
       <c r="N17">
-        <v>1.013549415</v>
+        <v>0.98260386</v>
       </c>
       <c r="O17">
-        <v>1.015641576666667</v>
+        <v>0.97983316</v>
       </c>
       <c r="P17">
-        <v>1.006005473333333</v>
+        <v>0.9921997399999999</v>
       </c>
       <c r="Q17">
-        <v>1.006005473333333</v>
+        <v>0.9921997399999999</v>
       </c>
       <c r="R17">
-        <v>1.0022335025</v>
+        <v>0.99699768</v>
       </c>
       <c r="S17">
-        <v>1.0022335025</v>
+        <v>0.99699768</v>
       </c>
       <c r="T17">
-        <v>1.000812811666667</v>
+        <v>0.99901023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.030828920547945</v>
+        <v>1.0301398</v>
       </c>
       <c r="D18">
-        <v>0.9742718257534243</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="E18">
-        <v>1.012004083561644</v>
+        <v>1.012634</v>
       </c>
       <c r="F18">
-        <v>1.011710994520548</v>
+        <v>1.0117535</v>
       </c>
       <c r="G18">
-        <v>0.9530474284931509</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H18">
-        <v>1.01159038630137</v>
+        <v>1.0113912</v>
       </c>
       <c r="I18">
-        <v>1.012004083561644</v>
+        <v>1.012634</v>
       </c>
       <c r="J18">
-        <v>0.9530474284931509</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K18">
-        <v>1.012004083561644</v>
+        <v>1.012634</v>
       </c>
       <c r="L18">
-        <v>1.01159038630137</v>
+        <v>1.0113912</v>
       </c>
       <c r="M18">
-        <v>0.9823189073972604</v>
+        <v>0.9820255</v>
       </c>
       <c r="N18">
-        <v>0.9823189073972604</v>
+        <v>0.9820255</v>
       </c>
       <c r="O18">
-        <v>0.979636546849315</v>
+        <v>0.97943384</v>
       </c>
       <c r="P18">
-        <v>0.9922139661187216</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q18">
-        <v>0.9922139661187216</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R18">
-        <v>0.9971614954794523</v>
+        <v>0.99732975</v>
       </c>
       <c r="S18">
-        <v>0.9971614954794523</v>
+        <v>0.99732975</v>
       </c>
       <c r="T18">
-        <v>0.9989089398630138</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.013988627368421</v>
+        <v>0.9760500600000001</v>
       </c>
       <c r="D19">
-        <v>0.9883787936842104</v>
+        <v>1.0198259</v>
       </c>
       <c r="E19">
-        <v>1.005367114736842</v>
+        <v>0.99091759</v>
       </c>
       <c r="F19">
-        <v>1.005286852105263</v>
+        <v>0.99098449</v>
       </c>
       <c r="G19">
-        <v>0.9788228542105264</v>
+        <v>1.0360868</v>
       </c>
       <c r="H19">
-        <v>1.005253827894737</v>
+        <v>0.9910120299999999</v>
       </c>
       <c r="I19">
-        <v>1.005367114736842</v>
+        <v>0.99091759</v>
       </c>
       <c r="J19">
-        <v>0.9788228542105264</v>
+        <v>1.0360868</v>
       </c>
       <c r="K19">
-        <v>1.005367114736842</v>
+        <v>0.99091759</v>
       </c>
       <c r="L19">
-        <v>1.005253827894737</v>
+        <v>0.9910120299999999</v>
       </c>
       <c r="M19">
-        <v>0.9920383410526317</v>
+        <v>1.013549415</v>
       </c>
       <c r="N19">
-        <v>0.9920383410526317</v>
+        <v>1.013549415</v>
       </c>
       <c r="O19">
-        <v>0.9908184919298245</v>
+        <v>1.015641576666667</v>
       </c>
       <c r="P19">
-        <v>0.9964812656140353</v>
+        <v>1.006005473333333</v>
       </c>
       <c r="Q19">
-        <v>0.9964812656140353</v>
+        <v>1.006005473333333</v>
       </c>
       <c r="R19">
-        <v>0.9987027278947369</v>
+        <v>1.0022335025</v>
       </c>
       <c r="S19">
-        <v>0.9987027278947369</v>
+        <v>1.0022335025</v>
       </c>
       <c r="T19">
-        <v>0.999516345</v>
+        <v>1.000812811666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.014426614736842</v>
+        <v>1.030828920547945</v>
       </c>
       <c r="D20">
-        <v>0.9883926205263159</v>
+        <v>0.9742718257534243</v>
       </c>
       <c r="E20">
-        <v>1.004966334210526</v>
+        <v>1.012004083561644</v>
       </c>
       <c r="F20">
-        <v>1.005259682105263</v>
+        <v>1.011710994520548</v>
       </c>
       <c r="G20">
-        <v>0.9790699068421053</v>
+        <v>0.9530474284931509</v>
       </c>
       <c r="H20">
-        <v>1.005380401578948</v>
+        <v>1.01159038630137</v>
       </c>
       <c r="I20">
-        <v>1.004966334210526</v>
+        <v>1.012004083561644</v>
       </c>
       <c r="J20">
-        <v>0.9790699068421053</v>
+        <v>0.9530474284931509</v>
       </c>
       <c r="K20">
-        <v>1.004966334210526</v>
+        <v>1.012004083561644</v>
       </c>
       <c r="L20">
-        <v>1.005380401578948</v>
+        <v>1.01159038630137</v>
       </c>
       <c r="M20">
-        <v>0.9922251542105265</v>
+        <v>0.9823189073972604</v>
       </c>
       <c r="N20">
-        <v>0.9922251542105265</v>
+        <v>0.9823189073972604</v>
       </c>
       <c r="O20">
-        <v>0.9909476429824563</v>
+        <v>0.979636546849315</v>
       </c>
       <c r="P20">
-        <v>0.9964722142105265</v>
+        <v>0.9922139661187216</v>
       </c>
       <c r="Q20">
-        <v>0.9964722142105265</v>
+        <v>0.9922139661187216</v>
       </c>
       <c r="R20">
-        <v>0.9985957442105264</v>
+        <v>0.9971614954794523</v>
       </c>
       <c r="S20">
-        <v>0.9985957442105264</v>
+        <v>0.9971614954794523</v>
       </c>
       <c r="T20">
-        <v>0.9995825933333334</v>
+        <v>0.9989089398630138</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9888323744684009</v>
+        <v>1.013988627368421</v>
       </c>
       <c r="D21">
-        <v>1.00897834241764</v>
+        <v>0.9883787936842104</v>
       </c>
       <c r="E21">
-        <v>0.9961659865889145</v>
+        <v>1.005367114736842</v>
       </c>
       <c r="F21">
-        <v>0.9959320169001692</v>
+        <v>1.005286852105263</v>
       </c>
       <c r="G21">
-        <v>1.016185282777185</v>
+        <v>0.9788228542105264</v>
       </c>
       <c r="H21">
-        <v>0.9958357270684536</v>
+        <v>1.005253827894737</v>
       </c>
       <c r="I21">
-        <v>0.9961659865889145</v>
+        <v>1.005367114736842</v>
       </c>
       <c r="J21">
-        <v>1.016185282777185</v>
+        <v>0.9788228542105264</v>
       </c>
       <c r="K21">
-        <v>0.9961659865889145</v>
+        <v>1.005367114736842</v>
       </c>
       <c r="L21">
-        <v>0.9958357270684536</v>
+        <v>1.005253827894737</v>
       </c>
       <c r="M21">
-        <v>1.006010504922819</v>
+        <v>0.9920383410526317</v>
       </c>
       <c r="N21">
-        <v>1.006010504922819</v>
+        <v>0.9920383410526317</v>
       </c>
       <c r="O21">
-        <v>1.006999784087759</v>
+        <v>0.9908184919298245</v>
       </c>
       <c r="P21">
-        <v>1.002728998811518</v>
+        <v>0.9964812656140353</v>
       </c>
       <c r="Q21">
-        <v>1.002728998811518</v>
+        <v>0.9964812656140353</v>
       </c>
       <c r="R21">
-        <v>1.001088245755867</v>
+        <v>0.9987027278947369</v>
       </c>
       <c r="S21">
-        <v>1.001088245755867</v>
+        <v>0.9987027278947369</v>
       </c>
       <c r="T21">
-        <v>1.000321621703461</v>
+        <v>0.999516345</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.99730459539724</v>
+        <v>1.014426614736842</v>
       </c>
       <c r="D22">
-        <v>1.002323897636629</v>
+        <v>0.9883926205263159</v>
       </c>
       <c r="E22">
-        <v>0.9988383306202269</v>
+        <v>1.004966334210526</v>
       </c>
       <c r="F22">
-        <v>0.9989381065659431</v>
+        <v>1.005259682105263</v>
       </c>
       <c r="G22">
-        <v>1.004284544148603</v>
+        <v>0.9790699068421053</v>
       </c>
       <c r="H22">
-        <v>0.9989791665705556</v>
+        <v>1.005380401578948</v>
       </c>
       <c r="I22">
-        <v>0.9988383306202269</v>
+        <v>1.004966334210526</v>
       </c>
       <c r="J22">
-        <v>1.004284544148603</v>
+        <v>0.9790699068421053</v>
       </c>
       <c r="K22">
-        <v>0.9988383306202269</v>
+        <v>1.004966334210526</v>
       </c>
       <c r="L22">
-        <v>0.9989791665705556</v>
+        <v>1.005380401578948</v>
       </c>
       <c r="M22">
-        <v>1.001631855359579</v>
+        <v>0.9922251542105265</v>
       </c>
       <c r="N22">
-        <v>1.001631855359579</v>
+        <v>0.9922251542105265</v>
       </c>
       <c r="O22">
-        <v>1.001862536118596</v>
+        <v>0.9909476429824563</v>
       </c>
       <c r="P22">
-        <v>1.000700680446462</v>
+        <v>0.9964722142105265</v>
       </c>
       <c r="Q22">
-        <v>1.000700680446462</v>
+        <v>0.9964722142105265</v>
       </c>
       <c r="R22">
-        <v>1.000235092989903</v>
+        <v>0.9985957442105264</v>
       </c>
       <c r="S22">
-        <v>1.000235092989903</v>
+        <v>0.9985957442105264</v>
       </c>
       <c r="T22">
-        <v>1.000111440156533</v>
+        <v>0.9995825933333334</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9888456298233126</v>
+        <v>0.9888323744684009</v>
       </c>
       <c r="D23">
-        <v>1.008979219520659</v>
+        <v>1.00897834241764</v>
       </c>
       <c r="E23">
-        <v>0.996153154398043</v>
+        <v>0.9961659865889145</v>
       </c>
       <c r="F23">
-        <v>0.9959309568614352</v>
+        <v>0.9959320169001692</v>
       </c>
       <c r="G23">
-        <v>1.016193888586086</v>
+        <v>1.016185282777185</v>
       </c>
       <c r="H23">
-        <v>0.995839515633447</v>
+        <v>0.9958357270684536</v>
       </c>
       <c r="I23">
-        <v>0.996153154398043</v>
+        <v>0.9961659865889145</v>
       </c>
       <c r="J23">
-        <v>1.016193888586086</v>
+        <v>1.016185282777185</v>
       </c>
       <c r="K23">
-        <v>0.996153154398043</v>
+        <v>0.9961659865889145</v>
       </c>
       <c r="L23">
-        <v>0.995839515633447</v>
+        <v>0.9958357270684536</v>
       </c>
       <c r="M23">
-        <v>1.006016702109766</v>
+        <v>1.006010504922819</v>
       </c>
       <c r="N23">
-        <v>1.006016702109766</v>
+        <v>1.006010504922819</v>
       </c>
       <c r="O23">
-        <v>1.007004207913397</v>
+        <v>1.006999784087759</v>
       </c>
       <c r="P23">
-        <v>1.002728852872525</v>
+        <v>1.002728998811518</v>
       </c>
       <c r="Q23">
-        <v>1.002728852872525</v>
+        <v>1.002728998811518</v>
       </c>
       <c r="R23">
-        <v>1.001084928253905</v>
+        <v>1.001088245755867</v>
       </c>
       <c r="S23">
-        <v>1.001084928253905</v>
+        <v>1.001088245755867</v>
       </c>
       <c r="T23">
-        <v>1.000323727470497</v>
+        <v>1.000321621703461</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9972987008390212</v>
+        <v>0.99730459539724</v>
       </c>
       <c r="D24">
-        <v>1.002323846036044</v>
+        <v>1.002323897636629</v>
       </c>
       <c r="E24">
-        <v>0.9988435240341823</v>
+        <v>0.9988383306202269</v>
       </c>
       <c r="F24">
-        <v>0.998938403644375</v>
+        <v>0.9989381065659431</v>
       </c>
       <c r="G24">
-        <v>1.004281537449279</v>
+        <v>1.004284544148603</v>
       </c>
       <c r="H24">
-        <v>0.9989774478140858</v>
+        <v>0.9989791665705556</v>
       </c>
       <c r="I24">
-        <v>0.9988435240341823</v>
+        <v>0.9988383306202269</v>
       </c>
       <c r="J24">
-        <v>1.004281537449279</v>
+        <v>1.004284544148603</v>
       </c>
       <c r="K24">
-        <v>0.9988435240341823</v>
+        <v>0.9988383306202269</v>
       </c>
       <c r="L24">
-        <v>0.9989774478140858</v>
+        <v>0.9989791665705556</v>
       </c>
       <c r="M24">
-        <v>1.001629492631682</v>
+        <v>1.001631855359579</v>
       </c>
       <c r="N24">
-        <v>1.001629492631682</v>
+        <v>1.001631855359579</v>
       </c>
       <c r="O24">
-        <v>1.001860943766469</v>
+        <v>1.001862536118596</v>
       </c>
       <c r="P24">
-        <v>1.000700836432516</v>
+        <v>1.000700680446462</v>
       </c>
       <c r="Q24">
-        <v>1.000700836432516</v>
+        <v>1.000700680446462</v>
       </c>
       <c r="R24">
-        <v>1.000236508332932</v>
+        <v>1.000235092989903</v>
       </c>
       <c r="S24">
-        <v>1.000236508332932</v>
+        <v>1.000235092989903</v>
       </c>
       <c r="T24">
-        <v>1.000110576636164</v>
+        <v>1.000111440156533</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9888590492768324</v>
+        <v>0.9888456298233126</v>
       </c>
       <c r="D25">
-        <v>1.00897997056303</v>
+        <v>1.008979219520659</v>
       </c>
       <c r="E25">
-        <v>0.9961403935434965</v>
+        <v>0.996153154398043</v>
       </c>
       <c r="F25">
-        <v>0.9959299642086804</v>
+        <v>0.9959309568614352</v>
       </c>
       <c r="G25">
-        <v>1.016202236447099</v>
+        <v>1.016193888586086</v>
       </c>
       <c r="H25">
-        <v>0.9958433541799609</v>
+        <v>0.995839515633447</v>
       </c>
       <c r="I25">
-        <v>0.9961403935434965</v>
+        <v>0.996153154398043</v>
       </c>
       <c r="J25">
-        <v>1.016202236447099</v>
+        <v>1.016193888586086</v>
       </c>
       <c r="K25">
-        <v>0.9961403935434965</v>
+        <v>0.996153154398043</v>
       </c>
       <c r="L25">
-        <v>0.9958433541799609</v>
+        <v>0.995839515633447</v>
       </c>
       <c r="M25">
-        <v>1.00602279531353</v>
+        <v>1.006016702109766</v>
       </c>
       <c r="N25">
-        <v>1.00602279531353</v>
+        <v>1.006016702109766</v>
       </c>
       <c r="O25">
-        <v>1.007008520396697</v>
+        <v>1.007004207913397</v>
       </c>
       <c r="P25">
-        <v>1.002728661390185</v>
+        <v>1.002728852872525</v>
       </c>
       <c r="Q25">
-        <v>1.002728661390186</v>
+        <v>1.002728852872525</v>
       </c>
       <c r="R25">
-        <v>1.001081594428513</v>
+        <v>1.001084928253905</v>
       </c>
       <c r="S25">
-        <v>1.001081594428513</v>
+        <v>1.001084928253905</v>
       </c>
       <c r="T25">
-        <v>1.000325828036517</v>
+        <v>1.000323727470497</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9972928526903513</v>
+        <v>0.9972987008390212</v>
       </c>
       <c r="D26">
-        <v>1.002323749074494</v>
+        <v>1.002323846036044</v>
       </c>
       <c r="E26">
-        <v>0.99884873132929</v>
+        <v>0.9988435240341823</v>
       </c>
       <c r="F26">
-        <v>0.9989387138255711</v>
+        <v>0.998938403644375</v>
       </c>
       <c r="G26">
-        <v>1.004278458247074</v>
+        <v>1.004281537449279</v>
       </c>
       <c r="H26">
-        <v>0.9989757454755455</v>
+        <v>0.9989774478140858</v>
       </c>
       <c r="I26">
-        <v>0.99884873132929</v>
+        <v>0.9988435240341823</v>
       </c>
       <c r="J26">
-        <v>1.004278458247074</v>
+        <v>1.004281537449279</v>
       </c>
       <c r="K26">
-        <v>0.99884873132929</v>
+        <v>0.9988435240341823</v>
       </c>
       <c r="L26">
-        <v>0.9989757454755455</v>
+        <v>0.9989774478140858</v>
       </c>
       <c r="M26">
-        <v>1.00162710186131</v>
+        <v>1.001629492631682</v>
       </c>
       <c r="N26">
-        <v>1.00162710186131</v>
+        <v>1.001629492631682</v>
       </c>
       <c r="O26">
-        <v>1.001859317599038</v>
+        <v>1.001860943766469</v>
       </c>
       <c r="P26">
-        <v>1.000700978350636</v>
+        <v>1.000700836432516</v>
       </c>
       <c r="Q26">
-        <v>1.000700978350636</v>
+        <v>1.000700836432516</v>
       </c>
       <c r="R26">
-        <v>1.0002379165953</v>
+        <v>1.000236508332932</v>
       </c>
       <c r="S26">
-        <v>1.0002379165953</v>
+        <v>1.000236508332932</v>
       </c>
       <c r="T26">
-        <v>1.000109708440387</v>
+        <v>1.000110576636164</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.0049286431089</v>
+        <v>0.9888590492768324</v>
       </c>
       <c r="D27">
-        <v>0.9959118157579536</v>
+        <v>1.00897997056303</v>
       </c>
       <c r="E27">
-        <v>1.001881450652574</v>
+        <v>0.9961403935434965</v>
       </c>
       <c r="F27">
-        <v>1.001859489790283</v>
+        <v>0.9959299642086804</v>
       </c>
       <c r="G27">
-        <v>0.9925539189243152</v>
+        <v>1.016202236447099</v>
       </c>
       <c r="H27">
-        <v>1.001850456768758</v>
+        <v>0.9958433541799609</v>
       </c>
       <c r="I27">
-        <v>1.001881450652574</v>
+        <v>0.9961403935434965</v>
       </c>
       <c r="J27">
-        <v>0.9925539189243152</v>
+        <v>1.016202236447099</v>
       </c>
       <c r="K27">
-        <v>1.001881450652574</v>
+        <v>0.9961403935434965</v>
       </c>
       <c r="L27">
-        <v>1.001850456768758</v>
+        <v>0.9958433541799609</v>
       </c>
       <c r="M27">
-        <v>0.9972021878465367</v>
+        <v>1.00602279531353</v>
       </c>
       <c r="N27">
-        <v>0.9972021878465367</v>
+        <v>1.00602279531353</v>
       </c>
       <c r="O27">
-        <v>0.996772063817009</v>
+        <v>1.007008520396697</v>
       </c>
       <c r="P27">
-        <v>0.9987619421152157</v>
+        <v>1.002728661390185</v>
       </c>
       <c r="Q27">
-        <v>0.9987619421152156</v>
+        <v>1.002728661390186</v>
       </c>
       <c r="R27">
-        <v>0.9995418192495551</v>
+        <v>1.001081594428513</v>
       </c>
       <c r="S27">
-        <v>0.9995418192495551</v>
+        <v>1.001081594428513</v>
       </c>
       <c r="T27">
-        <v>0.9998309625004639</v>
+        <v>1.000325828036517</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9990092905082657</v>
+        <v>0.9972928526903513</v>
       </c>
       <c r="D28">
-        <v>1.00070491312134</v>
+        <v>1.002323749074494</v>
       </c>
       <c r="E28">
-        <v>0.9997977969556445</v>
+        <v>0.99884873132929</v>
       </c>
       <c r="F28">
-        <v>0.9996858288555105</v>
+        <v>0.9989387138255711</v>
       </c>
       <c r="G28">
-        <v>1.001215165832634</v>
+        <v>1.004278458247074</v>
       </c>
       <c r="H28">
-        <v>0.9996397701802237</v>
+        <v>0.9989757454755455</v>
       </c>
       <c r="I28">
-        <v>0.9997977969556445</v>
+        <v>0.99884873132929</v>
       </c>
       <c r="J28">
-        <v>1.001215165832634</v>
+        <v>1.004278458247074</v>
       </c>
       <c r="K28">
-        <v>0.9997977969556445</v>
+        <v>0.99884873132929</v>
       </c>
       <c r="L28">
-        <v>0.9996397701802237</v>
+        <v>0.9989757454755455</v>
       </c>
       <c r="M28">
-        <v>1.000427468006429</v>
+        <v>1.00162710186131</v>
       </c>
       <c r="N28">
-        <v>1.000427468006429</v>
+        <v>1.00162710186131</v>
       </c>
       <c r="O28">
-        <v>1.000519949711399</v>
+        <v>1.001859317599038</v>
       </c>
       <c r="P28">
-        <v>1.000217577656167</v>
+        <v>1.000700978350636</v>
       </c>
       <c r="Q28">
-        <v>1.000217577656167</v>
+        <v>1.000700978350636</v>
       </c>
       <c r="R28">
-        <v>1.000112632481037</v>
+        <v>1.0002379165953</v>
       </c>
       <c r="S28">
-        <v>1.000112632481037</v>
+        <v>1.0002379165953</v>
       </c>
       <c r="T28">
-        <v>1.00000879424227</v>
+        <v>1.000109708440387</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.0049286431089</v>
+      </c>
+      <c r="D29">
+        <v>0.9959118157579536</v>
+      </c>
+      <c r="E29">
+        <v>1.001881450652574</v>
+      </c>
+      <c r="F29">
+        <v>1.001859489790283</v>
+      </c>
+      <c r="G29">
+        <v>0.9925539189243152</v>
+      </c>
+      <c r="H29">
+        <v>1.001850456768758</v>
+      </c>
+      <c r="I29">
+        <v>1.001881450652574</v>
+      </c>
+      <c r="J29">
+        <v>0.9925539189243152</v>
+      </c>
+      <c r="K29">
+        <v>1.001881450652574</v>
+      </c>
+      <c r="L29">
+        <v>1.001850456768758</v>
+      </c>
+      <c r="M29">
+        <v>0.9972021878465367</v>
+      </c>
+      <c r="N29">
+        <v>0.9972021878465367</v>
+      </c>
+      <c r="O29">
+        <v>0.996772063817009</v>
+      </c>
+      <c r="P29">
+        <v>0.9987619421152157</v>
+      </c>
+      <c r="Q29">
+        <v>0.9987619421152156</v>
+      </c>
+      <c r="R29">
+        <v>0.9995418192495551</v>
+      </c>
+      <c r="S29">
+        <v>0.9995418192495551</v>
+      </c>
+      <c r="T29">
+        <v>0.9998309625004639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9990092905082657</v>
+      </c>
+      <c r="D30">
+        <v>1.00070491312134</v>
+      </c>
+      <c r="E30">
+        <v>0.9997977969556445</v>
+      </c>
+      <c r="F30">
+        <v>0.9996858288555105</v>
+      </c>
+      <c r="G30">
+        <v>1.001215165832634</v>
+      </c>
+      <c r="H30">
+        <v>0.9996397701802237</v>
+      </c>
+      <c r="I30">
+        <v>0.9997977969556445</v>
+      </c>
+      <c r="J30">
+        <v>1.001215165832634</v>
+      </c>
+      <c r="K30">
+        <v>0.9997977969556445</v>
+      </c>
+      <c r="L30">
+        <v>0.9996397701802237</v>
+      </c>
+      <c r="M30">
+        <v>1.000427468006429</v>
+      </c>
+      <c r="N30">
+        <v>1.000427468006429</v>
+      </c>
+      <c r="O30">
+        <v>1.000519949711399</v>
+      </c>
+      <c r="P30">
+        <v>1.000217577656167</v>
+      </c>
+      <c r="Q30">
+        <v>1.000217577656167</v>
+      </c>
+      <c r="R30">
+        <v>1.000112632481037</v>
+      </c>
+      <c r="S30">
+        <v>1.000112632481037</v>
+      </c>
+      <c r="T30">
+        <v>1.00000879424227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9838213077783419</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.013181705608488</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9941825897913593</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9940175257118296</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.023868681282269</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9939496282594635</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9941825897913593</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.023868681282269</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9941825897913593</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9939496282594635</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.008909154770866</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.008909154770866</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.010333338383407</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004000299777697</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.004000299777697</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001545872281113</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001545872281113</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000503573071959</v>
       </c>
     </row>
